--- a/lib/brands.xlsx
+++ b/lib/brands.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="516">
   <si>
     <t xml:space="preserve">Символьный код</t>
   </si>
@@ -58,6 +58,9 @@
     <t xml:space="preserve">aeolus</t>
   </si>
   <si>
+    <t xml:space="preserve">фущдгы</t>
+  </si>
+  <si>
     <t xml:space="preserve">Аеолус</t>
   </si>
   <si>
@@ -703,18 +706,6 @@
     <t xml:space="preserve">Jinyu</t>
   </si>
   <si>
-    <t xml:space="preserve">kama</t>
-  </si>
-  <si>
-    <t xml:space="preserve">лфьф</t>
-  </si>
-  <si>
-    <t xml:space="preserve">кама</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kama</t>
-  </si>
-  <si>
     <t xml:space="preserve">kapsen</t>
   </si>
   <si>
@@ -790,12 +781,15 @@
     <t xml:space="preserve">kumho</t>
   </si>
   <si>
+    <t xml:space="preserve">лгьрщ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кумхо</t>
+  </si>
+  <si>
     <t xml:space="preserve">Kumho</t>
   </si>
   <si>
-    <t xml:space="preserve">Кумхо</t>
-  </si>
-  <si>
     <t xml:space="preserve">lanvigator</t>
   </si>
   <si>
@@ -1451,18 +1445,6 @@
   </si>
   <si>
     <t xml:space="preserve">Tristar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tunga</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Егтпф</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Тунга</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tunga</t>
   </si>
   <si>
     <t xml:space="preserve">tyrex</t>
@@ -1908,8 +1890,8 @@
   </sheetPr>
   <dimension ref="A1:D1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A148" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C168" activeCellId="0" sqref="C168"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A73" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B149" activeCellId="0" sqref="B149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1959,847 +1941,847 @@
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="3"/>
+      <c r="B4" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="C4" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C23" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B33" s="3"/>
       <c r="C33" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B35" s="3"/>
       <c r="C35" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B36" s="3"/>
       <c r="C36" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B37" s="3"/>
       <c r="C37" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B40" s="3"/>
       <c r="C40" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B41" s="3"/>
       <c r="C41" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B42" s="3"/>
       <c r="C42" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B44" s="3"/>
       <c r="C44" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B45" s="3"/>
       <c r="C45" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B46" s="3"/>
       <c r="C46" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B47" s="3"/>
       <c r="C47" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B48" s="3"/>
       <c r="C48" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B49" s="3"/>
       <c r="C49" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B51" s="3"/>
       <c r="C51" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B52" s="3"/>
       <c r="C52" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B53" s="3"/>
       <c r="C53" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B54" s="3"/>
       <c r="C54" s="3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B56" s="3"/>
       <c r="C56" s="3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B57" s="3"/>
       <c r="C57" s="3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B59" s="3"/>
       <c r="C59" s="3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B60" s="3"/>
       <c r="C60" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B61" s="3"/>
       <c r="C61" s="3" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B62" s="3"/>
       <c r="C62" s="3" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B65" s="3"/>
       <c r="C65" s="3" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B66" s="3"/>
       <c r="C66" s="3" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B67" s="3"/>
       <c r="C67" s="3" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B68" s="3"/>
       <c r="C68" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B69" s="3"/>
       <c r="C69" s="3" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B70" s="3"/>
       <c r="C70" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="B71" s="3" t="s">
         <v>227</v>
       </c>
+      <c r="B71" s="3"/>
       <c r="C71" s="3" t="s">
         <v>228</v>
       </c>
@@ -2895,883 +2877,881 @@
       <c r="A79" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="B79" s="3"/>
+      <c r="B79" s="3" t="s">
+        <v>252</v>
+      </c>
       <c r="C79" s="3" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="B80" s="3" t="s">
         <v>255</v>
       </c>
+      <c r="B80" s="3"/>
       <c r="C80" s="3" t="s">
         <v>256</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="B81" s="3"/>
+        <v>258</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>259</v>
+      </c>
       <c r="C81" s="3" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>265</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="B83" s="3"/>
       <c r="C83" s="3" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B84" s="3"/>
       <c r="C84" s="3" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B85" s="3"/>
       <c r="C85" s="3" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B86" s="3"/>
       <c r="C86" s="3" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="B87" s="3"/>
+        <v>278</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>279</v>
+      </c>
       <c r="C87" s="3" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="2" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="B89" s="3" t="s">
-        <v>285</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="B89" s="3"/>
       <c r="C89" s="3" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="2" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B90" s="3"/>
       <c r="C90" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="B91" s="3"/>
+        <v>292</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>293</v>
+      </c>
       <c r="C91" s="3" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="B92" s="3" t="s">
-        <v>295</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="B92" s="3"/>
       <c r="C92" s="3" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B93" s="3"/>
       <c r="C93" s="3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B94" s="3"/>
       <c r="C94" s="3" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B95" s="3"/>
       <c r="C95" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B96" s="3"/>
       <c r="C96" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B97" s="3"/>
       <c r="C97" s="3" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="B98" s="3"/>
+        <v>314</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>315</v>
+      </c>
       <c r="C98" s="3" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="B99" s="3" t="s">
-        <v>317</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="B99" s="3"/>
       <c r="C99" s="3" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="B100" s="3"/>
+        <v>321</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>322</v>
+      </c>
       <c r="C100" s="3" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="B101" s="3" t="s">
-        <v>324</v>
-      </c>
+        <v>325</v>
+      </c>
+      <c r="B101" s="3"/>
       <c r="C101" s="3" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B102" s="3"/>
       <c r="C102" s="3" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B103" s="3"/>
       <c r="C103" s="3" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B104" s="3"/>
       <c r="C104" s="3" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B105" s="3"/>
       <c r="C105" s="3" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B106" s="3"/>
       <c r="C106" s="3" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B107" s="3"/>
       <c r="C107" s="3" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B108" s="3"/>
       <c r="C108" s="3" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="B109" s="3"/>
+        <v>349</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>350</v>
+      </c>
       <c r="C109" s="3" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="B110" s="3" t="s">
-        <v>352</v>
-      </c>
+        <v>353</v>
+      </c>
+      <c r="B110" s="3"/>
       <c r="C110" s="3" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B111" s="3"/>
       <c r="C111" s="3" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="B112" s="3"/>
+        <v>359</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>360</v>
+      </c>
       <c r="C112" s="3" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="B113" s="3" t="s">
-        <v>362</v>
-      </c>
+        <v>363</v>
+      </c>
+      <c r="B113" s="3"/>
       <c r="C113" s="3" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="2" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B114" s="3"/>
       <c r="C114" s="3" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="2" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B115" s="3"/>
       <c r="C115" s="3" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="2" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B116" s="3"/>
       <c r="C116" s="3" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="2" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B117" s="3"/>
       <c r="C117" s="3" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="2" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B118" s="3"/>
       <c r="C118" s="3" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B119" s="3"/>
       <c r="C119" s="3" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="B120" s="3"/>
+        <v>384</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>385</v>
+      </c>
       <c r="C120" s="3" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="B121" s="3" t="s">
-        <v>387</v>
-      </c>
+        <v>388</v>
+      </c>
+      <c r="B121" s="3"/>
       <c r="C121" s="3" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="2" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B122" s="3"/>
       <c r="C122" s="3" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="B123" s="3"/>
+        <v>394</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>395</v>
+      </c>
       <c r="C123" s="3" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="B124" s="3" t="s">
-        <v>397</v>
-      </c>
+        <v>398</v>
+      </c>
+      <c r="B124" s="3"/>
       <c r="C124" s="3" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="2" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B125" s="3"/>
       <c r="C125" s="3" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B126" s="3"/>
       <c r="C126" s="3" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="2" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B127" s="3"/>
       <c r="C127" s="3" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="2" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B128" s="3"/>
       <c r="C128" s="3" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="B129" s="3"/>
+        <v>413</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>414</v>
+      </c>
       <c r="C129" s="3" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="B130" s="3" t="s">
-        <v>416</v>
-      </c>
+        <v>417</v>
+      </c>
+      <c r="B130" s="3"/>
       <c r="C130" s="3" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="B131" s="3"/>
+        <v>420</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>420</v>
+      </c>
       <c r="C131" s="3" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="B132" s="3" t="s">
-        <v>422</v>
-      </c>
+        <v>423</v>
+      </c>
+      <c r="B132" s="3"/>
       <c r="C132" s="3" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="2" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B133" s="3"/>
       <c r="C133" s="3" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="2" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B134" s="3"/>
       <c r="C134" s="3" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="2" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B135" s="3"/>
       <c r="C135" s="3" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B136" s="3"/>
       <c r="C136" s="3" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="2" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B137" s="3"/>
       <c r="C137" s="3" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="B138" s="3"/>
+        <v>441</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>442</v>
+      </c>
       <c r="C138" s="3" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="B139" s="3" t="s">
-        <v>444</v>
-      </c>
+        <v>445</v>
+      </c>
+      <c r="B139" s="3"/>
       <c r="C139" s="3" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="B140" s="3"/>
+        <v>448</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>449</v>
+      </c>
       <c r="C140" s="3" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="B141" s="3" t="s">
-        <v>451</v>
-      </c>
+        <v>452</v>
+      </c>
+      <c r="B141" s="3"/>
       <c r="C141" s="3" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="2" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B142" s="3"/>
       <c r="C142" s="3" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="B143" s="3"/>
+        <v>458</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>459</v>
+      </c>
       <c r="C143" s="3" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="B144" s="3" t="s">
-        <v>461</v>
-      </c>
+        <v>462</v>
+      </c>
+      <c r="B144" s="3"/>
       <c r="C144" s="3" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="2" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B145" s="3"/>
       <c r="C145" s="3" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="2" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B146" s="3"/>
       <c r="C146" s="3" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="2" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B147" s="3"/>
       <c r="C147" s="3" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="2" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B148" s="3"/>
       <c r="C148" s="3" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="B149" s="3" t="s">
         <v>477</v>
       </c>
+      <c r="B149" s="3"/>
       <c r="C149" s="3" t="s">
         <v>478</v>
       </c>
@@ -3807,59 +3787,59 @@
       <c r="A152" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="B152" s="3"/>
+      <c r="B152" s="3" t="s">
+        <v>487</v>
+      </c>
       <c r="C152" s="3" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="2" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B153" s="3"/>
       <c r="C153" s="3" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="2" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="2" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B155" s="3"/>
       <c r="C155" s="3" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="2" t="s">
-        <v>499</v>
-      </c>
-      <c r="B156" s="3" t="s">
         <v>500</v>
       </c>
+      <c r="B156" s="3"/>
       <c r="C156" s="3" t="s">
         <v>501</v>
       </c>
@@ -3883,33 +3863,33 @@
       <c r="A158" s="2" t="s">
         <v>506</v>
       </c>
-      <c r="B158" s="3"/>
+      <c r="B158" s="3" t="s">
+        <v>507</v>
+      </c>
       <c r="C158" s="3" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B159" s="3"/>
       <c r="C159" s="3" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="2" t="s">
-        <v>512</v>
-      </c>
-      <c r="B160" s="3" t="s">
         <v>513</v>
       </c>
+      <c r="B160" s="3"/>
       <c r="C160" s="3" t="s">
         <v>514</v>
       </c>
@@ -3917,30 +3897,8 @@
         <v>515</v>
       </c>
     </row>
-    <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="B161" s="3"/>
-      <c r="C161" s="3" t="s">
-        <v>517</v>
-      </c>
-      <c r="D161" s="2" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="2" t="s">
-        <v>519</v>
-      </c>
-      <c r="B162" s="3"/>
-      <c r="C162" s="3" t="s">
-        <v>520</v>
-      </c>
-      <c r="D162" s="2" t="s">
-        <v>521</v>
-      </c>
-    </row>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/lib/brands.xlsx
+++ b/lib/brands.xlsx
@@ -10,9 +10,6 @@
   <sheets>
     <sheet name="iblock_element_admin (8)" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
-  <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'iblock_element_admin (8)'!$A$1:$K$1</definedName>
-  </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -23,19 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="516">
-  <si>
-    <t xml:space="preserve">Символьный код</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Поиск 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Поиск 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Название</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="512">
   <si>
     <t xml:space="preserve">accelera</t>
   </si>
@@ -1687,28 +1672,7 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1890,8 +1854,8 @@
   </sheetPr>
   <dimension ref="A1:D1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A73" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B149" activeCellId="0" sqref="B149"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1903,33 +1867,33 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
@@ -1941,177 +1905,177 @@
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B18" s="3"/>
       <c r="C18" s="3" t="s">
         <v>54</v>
       </c>
@@ -2151,37 +2115,35 @@
       <c r="A21" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="3"/>
+      <c r="C21" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="D21" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B22" s="3"/>
       <c r="C22" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3" t="s">
         <v>71</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>73</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>72</v>
@@ -2189,21 +2151,23 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B25" s="3"/>
       <c r="C25" s="3" t="s">
         <v>78</v>
       </c>
@@ -2257,57 +2221,57 @@
       <c r="A29" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="3"/>
+      <c r="C29" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="D29" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B33" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B33" s="3"/>
       <c r="C33" s="3" t="s">
         <v>106</v>
       </c>
@@ -2319,55 +2283,55 @@
       <c r="A34" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="3"/>
+      <c r="C34" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="D34" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B35" s="3"/>
       <c r="C35" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B36" s="3"/>
       <c r="C36" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D36" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3" t="s">
+      <c r="D37" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>121</v>
@@ -2383,45 +2347,45 @@
       <c r="A39" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="3"/>
+      <c r="C39" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="D39" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B40" s="3"/>
       <c r="C40" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D40" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B41" s="3"/>
       <c r="C41" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D41" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B42" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="B42" s="3"/>
       <c r="C42" s="3" t="s">
         <v>135</v>
       </c>
@@ -2433,81 +2397,81 @@
       <c r="A43" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="3"/>
+      <c r="C43" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="D43" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B44" s="3"/>
       <c r="C44" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D44" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B45" s="3"/>
       <c r="C45" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D45" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B46" s="3"/>
       <c r="C46" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B47" s="3"/>
       <c r="C47" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D47" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B48" s="3"/>
       <c r="C48" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D48" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B49" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="B49" s="3"/>
       <c r="C49" s="3" t="s">
         <v>157</v>
       </c>
@@ -2519,57 +2483,57 @@
       <c r="A50" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" s="3"/>
+      <c r="C50" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="D50" s="2" t="s">
         <v>161</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B51" s="3"/>
       <c r="C51" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D51" s="2" t="s">
         <v>164</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B52" s="3"/>
       <c r="C52" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D52" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B53" s="3"/>
       <c r="C53" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D53" s="2" t="s">
         <v>170</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B54" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="B54" s="3"/>
       <c r="C54" s="3" t="s">
         <v>173</v>
       </c>
@@ -2581,33 +2545,33 @@
       <c r="A55" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B55" s="3"/>
+      <c r="C55" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="D55" s="2" t="s">
         <v>177</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B56" s="3"/>
       <c r="C56" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="D56" s="2" t="s">
         <v>180</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B57" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="B57" s="3"/>
       <c r="C57" s="3" t="s">
         <v>183</v>
       </c>
@@ -2619,57 +2583,57 @@
       <c r="A58" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B58" s="3"/>
+      <c r="C58" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="D58" s="2" t="s">
         <v>187</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B59" s="3"/>
       <c r="C59" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D59" s="2" t="s">
         <v>190</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B60" s="3"/>
       <c r="C60" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D60" s="2" t="s">
         <v>193</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B61" s="3"/>
       <c r="C61" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="D61" s="2" t="s">
         <v>196</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B62" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="B62" s="3"/>
       <c r="C62" s="3" t="s">
         <v>199</v>
       </c>
@@ -2695,177 +2659,177 @@
       <c r="A64" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="B64" s="3"/>
+      <c r="C64" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="C64" s="3" t="s">
+      <c r="D64" s="2" t="s">
         <v>207</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B65" s="3"/>
       <c r="C65" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D65" s="2" t="s">
         <v>210</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B66" s="3"/>
       <c r="C66" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="D66" s="2" t="s">
         <v>213</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B67" s="3"/>
       <c r="C67" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="D67" s="2" t="s">
         <v>216</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B68" s="3"/>
       <c r="C68" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="D68" s="2" t="s">
         <v>219</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B69" s="3"/>
       <c r="C69" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D69" s="2" t="s">
         <v>222</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B70" s="3"/>
       <c r="C70" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="D70" s="2" t="s">
         <v>225</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B71" s="3"/>
       <c r="C71" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="D71" s="2" t="s">
         <v>228</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B72" s="3"/>
       <c r="C72" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="D72" s="2" t="s">
         <v>231</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B73" s="3"/>
       <c r="C73" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D73" s="2" t="s">
         <v>234</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B74" s="3"/>
       <c r="C74" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D74" s="2" t="s">
         <v>237</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B75" s="3"/>
       <c r="C75" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D75" s="2" t="s">
         <v>240</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B76" s="3"/>
       <c r="C76" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="D76" s="2" t="s">
         <v>243</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B77" s="3"/>
       <c r="C77" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="D77" s="2" t="s">
         <v>246</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B78" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="B78" s="3"/>
       <c r="C78" s="3" t="s">
         <v>249</v>
       </c>
@@ -2877,21 +2841,21 @@
       <c r="A79" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="B79" s="3" t="s">
+      <c r="B79" s="3"/>
+      <c r="C79" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="C79" s="3" t="s">
+      <c r="D79" s="2" t="s">
         <v>253</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B80" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="B80" s="3"/>
       <c r="C80" s="3" t="s">
         <v>256</v>
       </c>
@@ -2917,57 +2881,57 @@
       <c r="A82" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="B82" s="3" t="s">
+      <c r="B82" s="3"/>
+      <c r="C82" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="C82" s="3" t="s">
+      <c r="D82" s="2" t="s">
         <v>264</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B83" s="3"/>
       <c r="C83" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="D83" s="2" t="s">
         <v>267</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B84" s="3"/>
       <c r="C84" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="D84" s="2" t="s">
         <v>270</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B85" s="3"/>
       <c r="C85" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="D85" s="2" t="s">
         <v>273</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B86" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="B86" s="3"/>
       <c r="C86" s="3" t="s">
         <v>276</v>
       </c>
@@ -2993,33 +2957,33 @@
       <c r="A88" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="B88" s="3" t="s">
+      <c r="B88" s="3"/>
+      <c r="C88" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="C88" s="3" t="s">
+      <c r="D88" s="2" t="s">
         <v>284</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B89" s="3"/>
       <c r="C89" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="D89" s="2" t="s">
         <v>287</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="B90" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="B90" s="3"/>
       <c r="C90" s="3" t="s">
         <v>290</v>
       </c>
@@ -3031,81 +2995,81 @@
       <c r="A91" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="B91" s="3" t="s">
+      <c r="B91" s="3"/>
+      <c r="C91" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="C91" s="3" t="s">
+      <c r="D91" s="2" t="s">
         <v>294</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B92" s="3"/>
       <c r="C92" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="D92" s="2" t="s">
         <v>297</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B93" s="3"/>
       <c r="C93" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="D93" s="2" t="s">
         <v>300</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B94" s="3"/>
       <c r="C94" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="D94" s="2" t="s">
         <v>303</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B95" s="3"/>
       <c r="C95" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="D95" s="2" t="s">
         <v>306</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B96" s="3"/>
       <c r="C96" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="D96" s="2" t="s">
         <v>309</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="B97" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="B97" s="3"/>
       <c r="C97" s="3" t="s">
         <v>312</v>
       </c>
@@ -3117,21 +3081,21 @@
       <c r="A98" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="B98" s="3" t="s">
+      <c r="B98" s="3"/>
+      <c r="C98" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="C98" s="3" t="s">
+      <c r="D98" s="2" t="s">
         <v>316</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="B99" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="B99" s="3"/>
       <c r="C99" s="3" t="s">
         <v>319</v>
       </c>
@@ -3143,105 +3107,105 @@
       <c r="A100" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="B100" s="3" t="s">
+      <c r="B100" s="3"/>
+      <c r="C100" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="C100" s="3" t="s">
+      <c r="D100" s="2" t="s">
         <v>323</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B101" s="3"/>
       <c r="C101" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="D101" s="2" t="s">
         <v>326</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B102" s="3"/>
       <c r="C102" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="D102" s="2" t="s">
         <v>329</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B103" s="3"/>
       <c r="C103" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="D103" s="2" t="s">
         <v>332</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B104" s="3"/>
       <c r="C104" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="D104" s="2" t="s">
         <v>335</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B105" s="3"/>
       <c r="C105" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="D105" s="2" t="s">
         <v>338</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B106" s="3"/>
       <c r="C106" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="D106" s="2" t="s">
         <v>341</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B107" s="3"/>
       <c r="C107" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="D107" s="2" t="s">
         <v>344</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="B108" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="B108" s="3"/>
       <c r="C108" s="3" t="s">
         <v>347</v>
       </c>
@@ -3253,33 +3217,33 @@
       <c r="A109" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="B109" s="3" t="s">
+      <c r="B109" s="3"/>
+      <c r="C109" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="C109" s="3" t="s">
+      <c r="D109" s="2" t="s">
         <v>351</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B110" s="3"/>
       <c r="C110" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="D110" s="2" t="s">
         <v>354</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="B111" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="B111" s="3"/>
       <c r="C111" s="3" t="s">
         <v>357</v>
       </c>
@@ -3291,93 +3255,93 @@
       <c r="A112" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="B112" s="3" t="s">
+      <c r="B112" s="3"/>
+      <c r="C112" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="C112" s="3" t="s">
+      <c r="D112" s="2" t="s">
         <v>361</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B113" s="3"/>
       <c r="C113" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="D113" s="2" t="s">
         <v>364</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B114" s="3"/>
       <c r="C114" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="D114" s="2" t="s">
         <v>367</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B115" s="3"/>
       <c r="C115" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="D115" s="2" t="s">
         <v>370</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B116" s="3"/>
       <c r="C116" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="D116" s="2" t="s">
         <v>373</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B117" s="3"/>
       <c r="C117" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="D117" s="2" t="s">
         <v>376</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B118" s="3"/>
       <c r="C118" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="D118" s="2" t="s">
         <v>379</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="B119" s="3" t="s">
         <v>381</v>
       </c>
-      <c r="B119" s="3"/>
       <c r="C119" s="3" t="s">
         <v>382</v>
       </c>
@@ -3389,33 +3353,33 @@
       <c r="A120" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="B120" s="3" t="s">
+      <c r="B120" s="3"/>
+      <c r="C120" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="C120" s="3" t="s">
+      <c r="D120" s="2" t="s">
         <v>386</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B121" s="3"/>
       <c r="C121" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="D121" s="2" t="s">
         <v>389</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="B122" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="B122" s="3"/>
       <c r="C122" s="3" t="s">
         <v>392</v>
       </c>
@@ -3427,69 +3391,69 @@
       <c r="A123" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="B123" s="3" t="s">
+      <c r="B123" s="3"/>
+      <c r="C123" s="3" t="s">
         <v>395</v>
       </c>
-      <c r="C123" s="3" t="s">
+      <c r="D123" s="2" t="s">
         <v>396</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B124" s="3"/>
       <c r="C124" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="D124" s="2" t="s">
         <v>399</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B125" s="3"/>
       <c r="C125" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="D125" s="2" t="s">
         <v>402</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B126" s="3"/>
       <c r="C126" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="D126" s="2" t="s">
         <v>405</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B127" s="3"/>
       <c r="C127" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="D127" s="2" t="s">
         <v>408</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="B128" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="B128" s="3"/>
       <c r="C128" s="3" t="s">
         <v>411</v>
       </c>
@@ -3501,107 +3465,107 @@
       <c r="A129" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="B129" s="3" t="s">
+      <c r="B129" s="3"/>
+      <c r="C129" s="3" t="s">
         <v>414</v>
       </c>
-      <c r="C129" s="3" t="s">
+      <c r="D129" s="2" t="s">
         <v>415</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="C130" s="3" t="s">
         <v>417</v>
       </c>
-      <c r="B130" s="3"/>
-      <c r="C130" s="3" t="s">
+      <c r="D130" s="2" t="s">
         <v>418</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="B131" s="3"/>
+      <c r="C131" s="3" t="s">
         <v>420</v>
       </c>
-      <c r="B131" s="3" t="s">
-        <v>420</v>
-      </c>
-      <c r="C131" s="3" t="s">
+      <c r="D131" s="2" t="s">
         <v>421</v>
-      </c>
-      <c r="D131" s="2" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B132" s="3"/>
       <c r="C132" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="D132" s="2" t="s">
         <v>424</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B133" s="3"/>
       <c r="C133" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="D133" s="2" t="s">
         <v>427</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B134" s="3"/>
       <c r="C134" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="D134" s="2" t="s">
         <v>430</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B135" s="3"/>
       <c r="C135" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="D135" s="2" t="s">
         <v>433</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B136" s="3"/>
       <c r="C136" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="D136" s="2" t="s">
         <v>436</v>
-      </c>
-      <c r="D136" s="2" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="B137" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="B137" s="3"/>
       <c r="C137" s="3" t="s">
         <v>439</v>
       </c>
@@ -3613,21 +3577,21 @@
       <c r="A138" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="B138" s="3" t="s">
+      <c r="B138" s="3"/>
+      <c r="C138" s="3" t="s">
         <v>442</v>
       </c>
-      <c r="C138" s="3" t="s">
+      <c r="D138" s="2" t="s">
         <v>443</v>
-      </c>
-      <c r="D138" s="2" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="B139" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="B139" s="3"/>
       <c r="C139" s="3" t="s">
         <v>446</v>
       </c>
@@ -3639,33 +3603,33 @@
       <c r="A140" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="B140" s="3" t="s">
+      <c r="B140" s="3"/>
+      <c r="C140" s="3" t="s">
         <v>449</v>
       </c>
-      <c r="C140" s="3" t="s">
+      <c r="D140" s="2" t="s">
         <v>450</v>
-      </c>
-      <c r="D140" s="2" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B141" s="3"/>
       <c r="C141" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="D141" s="2" t="s">
         <v>453</v>
-      </c>
-      <c r="D141" s="2" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="B142" s="3" t="s">
         <v>455</v>
       </c>
-      <c r="B142" s="3"/>
       <c r="C142" s="3" t="s">
         <v>456</v>
       </c>
@@ -3677,105 +3641,105 @@
       <c r="A143" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="B143" s="3" t="s">
+      <c r="B143" s="3"/>
+      <c r="C143" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="C143" s="3" t="s">
+      <c r="D143" s="2" t="s">
         <v>460</v>
-      </c>
-      <c r="D143" s="2" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B144" s="3"/>
       <c r="C144" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="D144" s="2" t="s">
         <v>463</v>
-      </c>
-      <c r="D144" s="2" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B145" s="3"/>
       <c r="C145" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="D145" s="2" t="s">
         <v>466</v>
-      </c>
-      <c r="D145" s="2" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B146" s="3"/>
       <c r="C146" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="D146" s="2" t="s">
         <v>469</v>
-      </c>
-      <c r="D146" s="2" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B147" s="3"/>
       <c r="C147" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="D147" s="2" t="s">
         <v>472</v>
-      </c>
-      <c r="D147" s="2" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B148" s="3"/>
       <c r="C148" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="D148" s="2" t="s">
         <v>475</v>
-      </c>
-      <c r="D148" s="2" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B149" s="3"/>
       <c r="C149" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="D149" s="2" t="s">
         <v>478</v>
-      </c>
-      <c r="D149" s="2" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B150" s="3"/>
       <c r="C150" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="D150" s="2" t="s">
         <v>481</v>
-      </c>
-      <c r="D150" s="2" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="B151" s="3" t="s">
         <v>483</v>
       </c>
-      <c r="B151" s="3"/>
       <c r="C151" s="3" t="s">
         <v>484</v>
       </c>
@@ -3787,21 +3751,21 @@
       <c r="A152" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="B152" s="3" t="s">
+      <c r="B152" s="3"/>
+      <c r="C152" s="3" t="s">
         <v>487</v>
       </c>
-      <c r="C152" s="3" t="s">
+      <c r="D152" s="2" t="s">
         <v>488</v>
-      </c>
-      <c r="D152" s="2" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="B153" s="3" t="s">
         <v>490</v>
       </c>
-      <c r="B153" s="3"/>
       <c r="C153" s="3" t="s">
         <v>491</v>
       </c>
@@ -3813,45 +3777,45 @@
       <c r="A154" s="2" t="s">
         <v>493</v>
       </c>
-      <c r="B154" s="3" t="s">
+      <c r="B154" s="3"/>
+      <c r="C154" s="3" t="s">
         <v>494</v>
       </c>
-      <c r="C154" s="3" t="s">
+      <c r="D154" s="2" t="s">
         <v>495</v>
-      </c>
-      <c r="D154" s="2" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B155" s="3"/>
       <c r="C155" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="D155" s="2" t="s">
         <v>498</v>
-      </c>
-      <c r="D155" s="2" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B156" s="3"/>
       <c r="C156" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="D156" s="2" t="s">
         <v>501</v>
-      </c>
-      <c r="D156" s="2" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="B157" s="3" t="s">
         <v>503</v>
       </c>
-      <c r="B157" s="3"/>
       <c r="C157" s="3" t="s">
         <v>504</v>
       </c>
@@ -3863,47 +3827,33 @@
       <c r="A158" s="2" t="s">
         <v>506</v>
       </c>
-      <c r="B158" s="3" t="s">
+      <c r="B158" s="3"/>
+      <c r="C158" s="3" t="s">
         <v>507</v>
       </c>
-      <c r="C158" s="3" t="s">
+      <c r="D158" s="2" t="s">
         <v>508</v>
-      </c>
-      <c r="D158" s="2" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B159" s="3"/>
       <c r="C159" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="D159" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="D159" s="2" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="2" t="s">
-        <v>513</v>
-      </c>
-      <c r="B160" s="3"/>
-      <c r="C160" s="3" t="s">
-        <v>514</v>
-      </c>
-      <c r="D160" s="2" t="s">
-        <v>515</v>
-      </c>
-    </row>
+    </row>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A1:K1"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -3911,6 +3861,5 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/lib/brands.xlsx
+++ b/lib/brands.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="281">
   <si>
     <t xml:space="preserve">accelera</t>
   </si>
@@ -40,15 +40,6 @@
     <t xml:space="preserve">Achilles</t>
   </si>
   <si>
-    <t xml:space="preserve">altenzo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Альтензо</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Altenzo</t>
-  </si>
-  <si>
     <t xml:space="preserve">aplus</t>
   </si>
   <si>
@@ -65,24 +56,6 @@
   </si>
   <si>
     <t xml:space="preserve">Arivo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">atlas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Атлас</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Atlas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aurora</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Аврора</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aurora</t>
   </si>
   <si>
     <t xml:space="preserve">austone</t>
@@ -1189,7 +1162,7 @@
   <dimension ref="A1:D1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I15" activeCellId="0" sqref="I15"/>
+      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1273,135 +1246,137 @@
       <c r="A7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="3"/>
+      <c r="B7" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="C7" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="C8" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="3"/>
+        <v>26</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="C9" s="3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>36</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="B12" s="3"/>
       <c r="C12" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>40</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="B13" s="3"/>
       <c r="C13" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>54</v>
@@ -1417,215 +1392,213 @@
       <c r="A18" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B18" s="3"/>
+      <c r="B18" s="3" t="s">
+        <v>58</v>
+      </c>
       <c r="C18" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>67</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="B21" s="3"/>
       <c r="C21" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B25" s="3"/>
+        <v>81</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>82</v>
+      </c>
       <c r="C25" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>84</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="B26" s="3"/>
       <c r="C26" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B27" s="3"/>
+        <v>88</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>89</v>
+      </c>
       <c r="C27" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>91</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="B28" s="3"/>
       <c r="C28" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B31" s="3"/>
+        <v>102</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="C31" s="3" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>108</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="B33" s="3"/>
       <c r="C33" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B34" s="3" t="s">
         <v>112</v>
       </c>
+      <c r="B34" s="3"/>
       <c r="C34" s="3" t="s">
         <v>113</v>
       </c>
@@ -1673,215 +1646,215 @@
       <c r="A38" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B38" s="3"/>
+      <c r="B38" s="3" t="s">
+        <v>125</v>
+      </c>
       <c r="C38" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B39" s="3"/>
       <c r="C39" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="B40" s="3"/>
+        <v>131</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>132</v>
+      </c>
       <c r="C40" s="3" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B42" s="3"/>
       <c r="C42" s="3" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>141</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="B43" s="3"/>
       <c r="C43" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="B45" s="3"/>
+        <v>149</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>150</v>
+      </c>
       <c r="C45" s="3" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B46" s="3"/>
       <c r="C46" s="3" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>159</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="B48" s="3"/>
       <c r="C48" s="3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="B49" s="3"/>
+        <v>163</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>164</v>
+      </c>
       <c r="C49" s="3" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>166</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="B50" s="3"/>
       <c r="C50" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="B51" s="3"/>
+        <v>170</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>171</v>
+      </c>
       <c r="C51" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>173</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="B52" s="3"/>
       <c r="C52" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B53" s="3"/>
       <c r="C53" s="3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="B54" s="3" t="s">
         <v>180</v>
       </c>
+      <c r="B54" s="3"/>
       <c r="C54" s="3" t="s">
         <v>181</v>
       </c>
@@ -1929,149 +1902,151 @@
       <c r="A58" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B58" s="3"/>
+      <c r="B58" s="3" t="s">
+        <v>193</v>
+      </c>
       <c r="C58" s="3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B59" s="3"/>
       <c r="C59" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="B60" s="3"/>
+        <v>199</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>200</v>
+      </c>
       <c r="C60" s="3" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>202</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="B61" s="3"/>
       <c r="C61" s="3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="B62" s="3"/>
+        <v>206</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>207</v>
+      </c>
       <c r="C62" s="3" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B64" s="3"/>
       <c r="C64" s="3" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>216</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="B65" s="3"/>
       <c r="C65" s="3" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B67" s="3"/>
       <c r="C67" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="B68" s="3"/>
+        <v>227</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>227</v>
+      </c>
       <c r="C68" s="3" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="B69" s="3" t="s">
         <v>230</v>
       </c>
+      <c r="B69" s="3"/>
       <c r="C69" s="3" t="s">
         <v>231</v>
       </c>
@@ -2095,9 +2070,7 @@
       <c r="A71" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="B71" s="3" t="s">
-        <v>236</v>
-      </c>
+      <c r="B71" s="3"/>
       <c r="C71" s="3" t="s">
         <v>237</v>
       </c>
@@ -2109,73 +2082,73 @@
       <c r="A72" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="B72" s="3"/>
+      <c r="B72" s="3" t="s">
+        <v>240</v>
+      </c>
       <c r="C72" s="3" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="B73" s="3"/>
+        <v>243</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>244</v>
+      </c>
       <c r="C73" s="3" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="B74" s="3"/>
+        <v>247</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>248</v>
+      </c>
       <c r="C74" s="3" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>249</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="B75" s="3"/>
       <c r="C75" s="3" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>253</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="B76" s="3"/>
       <c r="C76" s="3" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="B77" s="3" t="s">
         <v>257</v>
       </c>
+      <c r="B77" s="3"/>
       <c r="C77" s="3" t="s">
         <v>258</v>
       </c>
@@ -2199,104 +2172,71 @@
       <c r="A79" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="B79" s="3"/>
+      <c r="B79" s="3" t="s">
+        <v>264</v>
+      </c>
       <c r="C79" s="3" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B80" s="3"/>
       <c r="C80" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="B81" s="3"/>
+        <v>270</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>271</v>
+      </c>
       <c r="C81" s="3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>273</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="B82" s="3"/>
       <c r="C82" s="3" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="B83" s="3"/>
+        <v>277</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>278</v>
+      </c>
       <c r="C83" s="3" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="B84" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="C84" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="B85" s="3"/>
-      <c r="C85" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="B86" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>289</v>
-      </c>
-    </row>
+    </row>
+    <row r="1048495" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048496" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048497" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048498" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048499" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048500" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/lib/brands.xlsx
+++ b/lib/brands.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="266">
   <si>
     <t xml:space="preserve">accelera</t>
   </si>
@@ -145,15 +145,6 @@
     <t xml:space="preserve">Daewoo</t>
   </si>
   <si>
-    <t xml:space="preserve">dayton</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Дайтон</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dayton</t>
-  </si>
-  <si>
     <t xml:space="preserve">debica</t>
   </si>
   <si>
@@ -175,15 +166,6 @@
     <t xml:space="preserve">Diplomat</t>
   </si>
   <si>
-    <t xml:space="preserve">dongfeng</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Донгфенг</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dongfeng</t>
-  </si>
-  <si>
     <t xml:space="preserve">doublestar</t>
   </si>
   <si>
@@ -256,15 +238,6 @@
     <t xml:space="preserve">Fulda</t>
   </si>
   <si>
-    <t xml:space="preserve">general</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Дженерал</t>
-  </si>
-  <si>
-    <t xml:space="preserve">General</t>
-  </si>
-  <si>
     <t xml:space="preserve">gislaved</t>
   </si>
   <si>
@@ -307,15 +280,6 @@
     <t xml:space="preserve">Grenlander</t>
   </si>
   <si>
-    <t xml:space="preserve">gtradial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Джи Ти радиал</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GTRadial</t>
-  </si>
-  <si>
     <t xml:space="preserve">hankook</t>
   </si>
   <si>
@@ -671,15 +635,6 @@
   </si>
   <si>
     <t xml:space="preserve">Sailun</t>
-  </si>
-  <si>
-    <t xml:space="preserve">satoya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сатоя</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Satoya</t>
   </si>
   <si>
     <t xml:space="preserve">sava</t>
@@ -1161,8 +1116,8 @@
   </sheetPr>
   <dimension ref="A1:D1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A32" activeCellId="0" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1328,21 +1283,21 @@
       <c r="A13" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="3"/>
+      <c r="B13" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="C13" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B14" s="3" t="s">
         <v>45</v>
       </c>
+      <c r="B14" s="3"/>
       <c r="C14" s="3" t="s">
         <v>46</v>
       </c>
@@ -1354,7 +1309,9 @@
       <c r="A15" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B15" s="3"/>
+      <c r="B15" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="C15" s="3" t="s">
         <v>49</v>
       </c>
@@ -1366,61 +1323,59 @@
       <c r="A16" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B16" s="3"/>
+      <c r="B16" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="C16" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>54</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="B17" s="3"/>
       <c r="C17" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B20" s="3" t="s">
         <v>65</v>
       </c>
+      <c r="B20" s="3"/>
       <c r="C20" s="3" t="s">
         <v>66</v>
       </c>
@@ -1432,137 +1387,137 @@
       <c r="A21" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B21" s="3"/>
+      <c r="B21" s="3" t="s">
+        <v>69</v>
+      </c>
       <c r="C21" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B22" s="3"/>
+        <v>72</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>73</v>
+      </c>
       <c r="C22" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>75</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="B23" s="3"/>
       <c r="C23" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B24" s="3"/>
+        <v>79</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>80</v>
+      </c>
       <c r="C24" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>82</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="B25" s="3"/>
       <c r="C25" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B26" s="3"/>
+        <v>86</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>87</v>
+      </c>
       <c r="C26" s="3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>99</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="B30" s="3"/>
       <c r="C30" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B31" s="3" t="s">
         <v>103</v>
       </c>
+      <c r="B31" s="3"/>
       <c r="C31" s="3" t="s">
         <v>104</v>
       </c>
@@ -1598,227 +1553,227 @@
       <c r="A34" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B34" s="3"/>
+      <c r="B34" s="3" t="s">
+        <v>113</v>
+      </c>
       <c r="C34" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B35" s="3"/>
       <c r="C35" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B36" s="3"/>
+        <v>119</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>120</v>
+      </c>
       <c r="C36" s="3" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="B37" s="3"/>
+        <v>123</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>124</v>
+      </c>
       <c r="C37" s="3" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>125</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="B38" s="3"/>
       <c r="C38" s="3" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B39" s="3"/>
       <c r="C39" s="3" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B42" s="3"/>
       <c r="C42" s="3" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B43" s="3"/>
+        <v>144</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>145</v>
+      </c>
       <c r="C43" s="3" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>146</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="B44" s="3"/>
       <c r="C44" s="3" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B46" s="3"/>
       <c r="C46" s="3" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B48" s="3"/>
       <c r="C48" s="3" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>164</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="B49" s="3"/>
       <c r="C49" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B50" s="3"/>
       <c r="C50" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="B51" s="3" t="s">
         <v>171</v>
       </c>
+      <c r="B51" s="3"/>
       <c r="C51" s="3" t="s">
         <v>172</v>
       </c>
@@ -1854,161 +1809,163 @@
       <c r="A54" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B54" s="3"/>
+      <c r="B54" s="3" t="s">
+        <v>181</v>
+      </c>
       <c r="C54" s="3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B55" s="3"/>
       <c r="C55" s="3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="B56" s="3"/>
+        <v>187</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>188</v>
+      </c>
       <c r="C56" s="3" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B57" s="3"/>
       <c r="C57" s="3" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="B59" s="3"/>
+        <v>198</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>199</v>
+      </c>
       <c r="C59" s="3" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>200</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="B60" s="3"/>
       <c r="C60" s="3" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="B61" s="3"/>
+        <v>205</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>206</v>
+      </c>
       <c r="C61" s="3" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>207</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="B62" s="3"/>
       <c r="C62" s="3" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B64" s="3"/>
       <c r="C64" s="3" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B65" s="3"/>
       <c r="C65" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="B66" s="3" t="s">
         <v>221</v>
       </c>
+      <c r="B66" s="3"/>
       <c r="C66" s="3" t="s">
         <v>222</v>
       </c>
@@ -2020,220 +1977,163 @@
       <c r="A67" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="B67" s="3"/>
+      <c r="B67" s="3" t="s">
+        <v>225</v>
+      </c>
       <c r="C67" s="3" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="B69" s="3"/>
+        <v>232</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>233</v>
+      </c>
       <c r="C69" s="3" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="2" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="B70" s="3"/>
       <c r="C70" s="3" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="2" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="B71" s="3"/>
       <c r="C71" s="3" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>240</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="B72" s="3"/>
       <c r="C72" s="3" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>244</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="B73" s="3"/>
       <c r="C73" s="3" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B75" s="3"/>
       <c r="C75" s="3" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="B76" s="3"/>
+        <v>255</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>256</v>
+      </c>
       <c r="C76" s="3" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B77" s="3"/>
       <c r="C77" s="3" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="B78" s="3"/>
+        <v>262</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>263</v>
+      </c>
       <c r="C78" s="3" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="C79" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="D79" s="2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="B80" s="3"/>
-      <c r="C80" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="B82" s="3"/>
-      <c r="C82" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>280</v>
-      </c>
-    </row>
+    </row>
+    <row r="1048490" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048491" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048492" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048493" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048494" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048495" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048496" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048497" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/lib/brands.xlsx
+++ b/lib/brands.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="312">
   <si>
     <t xml:space="preserve">accelera</t>
   </si>
@@ -818,6 +818,144 @@
   </si>
   <si>
     <t xml:space="preserve">Yokohama</t>
+  </si>
+  <si>
+    <t xml:space="preserve">armstrong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Армстронг</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Armstrong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">blacklion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Блэклайон</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BlackLion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">compasal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Компасал</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compasal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">crystal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кристалл</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crystal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fronway</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фронвэй</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fronway</t>
+  </si>
+  <si>
+    <t xml:space="preserve">goldshield</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Голдшилд</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Goldshield</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jinyu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Джинью</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JINYU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">leao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Леао</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">longmarch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Лонгмарч</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LongMarch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maxell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Макселл</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maxell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">roadshine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Роадшайн</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roadshine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">roadx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Родекс</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roadx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">royalblack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Роял Блэк</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Royal Black</t>
+  </si>
+  <si>
+    <t xml:space="preserve">supercargo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Суперкарго</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supercargo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">windforce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Виндфорс</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Windforce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18/04/2024</t>
   </si>
 </sst>
 </file>
@@ -908,7 +1046,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -923,6 +1061,10 @@
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1114,18 +1256,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D1048576"/>
+  <dimension ref="A1:E1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A32" activeCellId="0" sqref="A32"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A56" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G87" activeCellId="0" sqref="G87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="1" style="1" width="32.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16383" style="0" width="10.16"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1137,7 +1280,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -1149,7 +1292,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -1161,7 +1304,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -1173,7 +1316,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -1185,7 +1328,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
@@ -1197,7 +1340,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
         <v>18</v>
       </c>
@@ -1211,7 +1354,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
@@ -1225,7 +1368,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
         <v>26</v>
       </c>
@@ -1239,7 +1382,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
         <v>30</v>
       </c>
@@ -1253,7 +1396,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
         <v>34</v>
       </c>
@@ -1267,7 +1410,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
         <v>38</v>
       </c>
@@ -1279,7 +1422,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
         <v>41</v>
       </c>
@@ -1293,7 +1436,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
         <v>45</v>
       </c>
@@ -1305,7 +1448,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
         <v>48</v>
       </c>
@@ -1319,7 +1462,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
         <v>51</v>
       </c>
@@ -1333,7 +1476,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
         <v>55</v>
       </c>
@@ -1345,7 +1488,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
         <v>58</v>
       </c>
@@ -1359,7 +1502,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
         <v>62</v>
       </c>
@@ -1371,7 +1514,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
         <v>65</v>
       </c>
@@ -1383,7 +1526,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
         <v>68</v>
       </c>
@@ -1397,7 +1540,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
         <v>72</v>
       </c>
@@ -1411,7 +1554,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
         <v>76</v>
       </c>
@@ -1423,7 +1566,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
         <v>79</v>
       </c>
@@ -1437,7 +1580,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
         <v>83</v>
       </c>
@@ -1449,7 +1592,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
         <v>86</v>
       </c>
@@ -1463,7 +1606,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
         <v>90</v>
       </c>
@@ -1477,7 +1620,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
         <v>94</v>
       </c>
@@ -1489,7 +1632,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
         <v>97</v>
       </c>
@@ -1501,7 +1644,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
         <v>100</v>
       </c>
@@ -1513,7 +1656,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
         <v>103</v>
       </c>
@@ -1525,7 +1668,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
         <v>106</v>
       </c>
@@ -1537,7 +1680,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
         <v>109</v>
       </c>
@@ -1549,7 +1692,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
         <v>112</v>
       </c>
@@ -1563,7 +1706,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
         <v>116</v>
       </c>
@@ -1575,7 +1718,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
         <v>119</v>
       </c>
@@ -1589,7 +1732,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
         <v>123</v>
       </c>
@@ -1603,7 +1746,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
         <v>127</v>
       </c>
@@ -1615,7 +1758,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
         <v>130</v>
       </c>
@@ -1627,7 +1770,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
         <v>133</v>
       </c>
@@ -1641,7 +1784,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
         <v>137</v>
       </c>
@@ -1655,7 +1798,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="s">
         <v>141</v>
       </c>
@@ -1667,7 +1810,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="s">
         <v>144</v>
       </c>
@@ -1681,7 +1824,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="s">
         <v>148</v>
       </c>
@@ -1693,7 +1836,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="s">
         <v>151</v>
       </c>
@@ -1707,7 +1850,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="s">
         <v>155</v>
       </c>
@@ -1719,7 +1862,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="s">
         <v>158</v>
       </c>
@@ -1733,7 +1876,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="s">
         <v>162</v>
       </c>
@@ -1745,7 +1888,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="s">
         <v>165</v>
       </c>
@@ -1757,7 +1900,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="s">
         <v>168</v>
       </c>
@@ -1769,7 +1912,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="2" t="s">
         <v>171</v>
       </c>
@@ -1781,7 +1924,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="2" t="s">
         <v>174</v>
       </c>
@@ -1793,7 +1936,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="2" t="s">
         <v>177</v>
       </c>
@@ -1805,7 +1948,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="2" t="s">
         <v>180</v>
       </c>
@@ -1819,7 +1962,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="2" t="s">
         <v>184</v>
       </c>
@@ -1831,7 +1974,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="2" t="s">
         <v>187</v>
       </c>
@@ -1845,7 +1988,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="2" t="s">
         <v>191</v>
       </c>
@@ -1857,7 +2000,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="2" t="s">
         <v>194</v>
       </c>
@@ -1871,7 +2014,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="2" t="s">
         <v>198</v>
       </c>
@@ -1885,7 +2028,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="2" t="s">
         <v>202</v>
       </c>
@@ -1897,7 +2040,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="2" t="s">
         <v>205</v>
       </c>
@@ -1911,7 +2054,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="2" t="s">
         <v>209</v>
       </c>
@@ -1923,7 +2066,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="2" t="s">
         <v>212</v>
       </c>
@@ -1937,7 +2080,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="2" t="s">
         <v>215</v>
       </c>
@@ -1949,7 +2092,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="2" t="s">
         <v>218</v>
       </c>
@@ -1961,7 +2104,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="2" t="s">
         <v>221</v>
       </c>
@@ -1973,7 +2116,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="2" t="s">
         <v>224</v>
       </c>
@@ -1987,7 +2130,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="2" t="s">
         <v>228</v>
       </c>
@@ -2001,7 +2144,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="2" t="s">
         <v>232</v>
       </c>
@@ -2015,7 +2158,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="2" t="s">
         <v>236</v>
       </c>
@@ -2027,7 +2170,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="2" t="s">
         <v>239</v>
       </c>
@@ -2039,7 +2182,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="2" t="s">
         <v>242</v>
       </c>
@@ -2051,7 +2194,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="2" t="s">
         <v>245</v>
       </c>
@@ -2063,7 +2206,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="2" t="s">
         <v>248</v>
       </c>
@@ -2077,7 +2220,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="2" t="s">
         <v>252</v>
       </c>
@@ -2089,7 +2232,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="2" t="s">
         <v>255</v>
       </c>
@@ -2103,7 +2246,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="2" t="s">
         <v>259</v>
       </c>
@@ -2115,7 +2258,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="2" t="s">
         <v>262</v>
       </c>
@@ -2129,92 +2272,189 @@
         <v>265</v>
       </c>
     </row>
-    <row r="1048490" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048491" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048492" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048493" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048494" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048495" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048496" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048497" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048498" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048499" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048500" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048501" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048502" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048503" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048504" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048505" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048506" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048507" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048508" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048509" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048510" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048511" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048512" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048513" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048514" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048515" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048516" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048517" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048518" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048519" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048520" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048521" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048522" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048523" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048524" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048525" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048526" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048527" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048528" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048529" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048530" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048531" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048532" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048535" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="79" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="B79" s="3"/>
+      <c r="C79" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="B80" s="3"/>
+      <c r="C80" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="B81" s="3"/>
+      <c r="C81" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="B82" s="3"/>
+      <c r="C82" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="B83" s="3"/>
+      <c r="C83" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="B84" s="3"/>
+      <c r="C84" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="B85" s="3"/>
+      <c r="C85" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="B86" s="3"/>
+      <c r="C86" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="B87" s="3"/>
+      <c r="C87" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B88" s="3"/>
+      <c r="C88" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="B89" s="3"/>
+      <c r="C89" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="B90" s="3"/>
+      <c r="C90" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B91" s="3"/>
+      <c r="C91" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="B92" s="3"/>
+      <c r="C92" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="B93" s="3"/>
+      <c r="C93" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="E93" s="0" t="s">
+        <v>311</v>
+      </c>
+    </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/lib/brands.xlsx
+++ b/lib/brands.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="315">
   <si>
     <t xml:space="preserve">accelera</t>
   </si>
@@ -956,6 +956,15 @@
   </si>
   <si>
     <t xml:space="preserve">18/04/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rovelo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ровело</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rovelo</t>
   </si>
 </sst>
 </file>
@@ -1046,7 +1055,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1061,10 +1070,6 @@
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1258,14 +1263,14 @@
   </sheetPr>
   <dimension ref="A1:E1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A56" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G87" activeCellId="0" sqref="G87"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A74" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C97" activeCellId="0" sqref="C97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="1" style="1" width="32.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16383" style="0" width="10.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16383" style="1" width="10.16"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2273,185 +2278,200 @@
       </c>
     </row>
     <row r="79" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="4" t="s">
+      <c r="A79" s="2" t="s">
         <v>266</v>
       </c>
       <c r="B79" s="3"/>
       <c r="C79" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="D79" s="4" t="s">
+      <c r="D79" s="2" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="4" t="s">
+      <c r="A80" s="2" t="s">
         <v>269</v>
       </c>
       <c r="B80" s="3"/>
       <c r="C80" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="D80" s="4" t="s">
+      <c r="D80" s="2" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="4" t="s">
+      <c r="A81" s="2" t="s">
         <v>272</v>
       </c>
       <c r="B81" s="3"/>
       <c r="C81" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="D81" s="4" t="s">
+      <c r="D81" s="2" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="4" t="s">
+      <c r="A82" s="2" t="s">
         <v>275</v>
       </c>
       <c r="B82" s="3"/>
       <c r="C82" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="D82" s="4" t="s">
+      <c r="D82" s="2" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="4" t="s">
+      <c r="A83" s="2" t="s">
         <v>278</v>
       </c>
       <c r="B83" s="3"/>
       <c r="C83" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="D83" s="4" t="s">
+      <c r="D83" s="2" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="4" t="s">
+      <c r="A84" s="2" t="s">
         <v>281</v>
       </c>
       <c r="B84" s="3"/>
       <c r="C84" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="D84" s="4" t="s">
+      <c r="D84" s="2" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="4" t="s">
+      <c r="A85" s="2" t="s">
         <v>284</v>
       </c>
       <c r="B85" s="3"/>
       <c r="C85" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="D85" s="4" t="s">
+      <c r="D85" s="2" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="4" t="s">
+      <c r="A86" s="2" t="s">
         <v>287</v>
       </c>
       <c r="B86" s="3"/>
       <c r="C86" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="D86" s="4" t="s">
+      <c r="D86" s="2" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="4" t="s">
+      <c r="A87" s="2" t="s">
         <v>290</v>
       </c>
       <c r="B87" s="3"/>
       <c r="C87" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="D87" s="4" t="s">
+      <c r="D87" s="2" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="4" t="s">
+      <c r="A88" s="2" t="s">
         <v>293</v>
       </c>
       <c r="B88" s="3"/>
       <c r="C88" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="D88" s="4" t="s">
+      <c r="D88" s="2" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="4" t="s">
+      <c r="A89" s="2" t="s">
         <v>296</v>
       </c>
       <c r="B89" s="3"/>
       <c r="C89" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="D89" s="4" t="s">
+      <c r="D89" s="2" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="4" t="s">
+      <c r="A90" s="2" t="s">
         <v>299</v>
       </c>
       <c r="B90" s="3"/>
       <c r="C90" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="D90" s="4" t="s">
+      <c r="D90" s="2" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="4" t="s">
+      <c r="A91" s="2" t="s">
         <v>302</v>
       </c>
       <c r="B91" s="3"/>
       <c r="C91" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="D91" s="4" t="s">
+      <c r="D91" s="2" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="4" t="s">
+      <c r="A92" s="2" t="s">
         <v>305</v>
       </c>
       <c r="B92" s="3"/>
       <c r="C92" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="D92" s="4" t="s">
+      <c r="D92" s="2" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="4" t="s">
+      <c r="A93" s="2" t="s">
         <v>308</v>
       </c>
       <c r="B93" s="3"/>
       <c r="C93" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="D93" s="4" t="s">
+      <c r="D93" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="E93" s="0" t="s">
+      <c r="E93" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="B94" s="3"/>
+      <c r="C94" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="E94" s="1" t="s">
         <v>311</v>
       </c>
     </row>

--- a/lib/brands.xlsx
+++ b/lib/brands.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="502">
   <si>
     <t xml:space="preserve">accelera</t>
   </si>
@@ -40,6 +40,15 @@
     <t xml:space="preserve">Achilles</t>
   </si>
   <si>
+    <t xml:space="preserve">aeolus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Аеолус</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aeolus</t>
+  </si>
+  <si>
     <t xml:space="preserve">aplus</t>
   </si>
   <si>
@@ -58,6 +67,15 @@
     <t xml:space="preserve">Arivo</t>
   </si>
   <si>
+    <t xml:space="preserve">armstrong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Армстронг</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Armstrong</t>
+  </si>
+  <si>
     <t xml:space="preserve">austone</t>
   </si>
   <si>
@@ -100,6 +118,15 @@
     <t xml:space="preserve">BFGoodrich</t>
   </si>
   <si>
+    <t xml:space="preserve">blacklion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Блэклайон</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BlackLion</t>
+  </si>
+  <si>
     <t xml:space="preserve">bridgestone</t>
   </si>
   <si>
@@ -112,6 +139,15 @@
     <t xml:space="preserve">Bridgestone</t>
   </si>
   <si>
+    <t xml:space="preserve">compasal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Компасал</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compasal</t>
+  </si>
+  <si>
     <t xml:space="preserve">continental</t>
   </si>
   <si>
@@ -136,6 +172,15 @@
     <t xml:space="preserve">Cooper</t>
   </si>
   <si>
+    <t xml:space="preserve">crystal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кристалл</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crystal</t>
+  </si>
+  <si>
     <t xml:space="preserve">daewoo</t>
   </si>
   <si>
@@ -166,6 +211,15 @@
     <t xml:space="preserve">Diplomat</t>
   </si>
   <si>
+    <t xml:space="preserve">dongfeng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Донгфенг</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dongfeng</t>
+  </si>
+  <si>
     <t xml:space="preserve">doublestar</t>
   </si>
   <si>
@@ -226,6 +280,15 @@
     <t xml:space="preserve">Firestone</t>
   </si>
   <si>
+    <t xml:space="preserve">fronway</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фронвэй</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fronway</t>
+  </si>
+  <si>
     <t xml:space="preserve">fulda</t>
   </si>
   <si>
@@ -250,6 +313,15 @@
     <t xml:space="preserve">Gislaved</t>
   </si>
   <si>
+    <t xml:space="preserve">goldshield</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Голдшилд</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Goldshield</t>
+  </si>
+  <si>
     <t xml:space="preserve">goodride</t>
   </si>
   <si>
@@ -286,7 +358,7 @@
     <t xml:space="preserve">рфтлщщл</t>
   </si>
   <si>
-    <t xml:space="preserve">ханкук</t>
+    <t xml:space="preserve">Ханкук</t>
   </si>
   <si>
     <t xml:space="preserve">Hankook</t>
@@ -322,6 +394,15 @@
     <t xml:space="preserve">Infinity</t>
   </si>
   <si>
+    <t xml:space="preserve">jinyu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Джинью</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JINYU</t>
+  </si>
+  <si>
     <t xml:space="preserve">kapsen</t>
   </si>
   <si>
@@ -403,6 +484,15 @@
     <t xml:space="preserve">Laufenn</t>
   </si>
   <si>
+    <t xml:space="preserve">leao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Леао</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leao</t>
+  </si>
+  <si>
     <t xml:space="preserve">linglong</t>
   </si>
   <si>
@@ -412,6 +502,15 @@
     <t xml:space="preserve">LingLong</t>
   </si>
   <si>
+    <t xml:space="preserve">longmarch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Лонгмарч</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LongMarch</t>
+  </si>
+  <si>
     <t xml:space="preserve">mabor</t>
   </si>
   <si>
@@ -421,6 +520,15 @@
     <t xml:space="preserve">Mabor</t>
   </si>
   <si>
+    <t xml:space="preserve">marcher</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Марчер</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marcher</t>
+  </si>
+  <si>
     <t xml:space="preserve">marshal</t>
   </si>
   <si>
@@ -445,6 +553,15 @@
     <t xml:space="preserve">Matador</t>
   </si>
   <si>
+    <t xml:space="preserve">maxell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Макселл</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maxell</t>
+  </si>
+  <si>
     <t xml:space="preserve">maxxis</t>
   </si>
   <si>
@@ -604,6 +721,15 @@
     <t xml:space="preserve">Riken</t>
   </si>
   <si>
+    <t xml:space="preserve">roadshine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Роадшайн</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roadshine</t>
+  </si>
+  <si>
     <t xml:space="preserve">roadstone</t>
   </si>
   <si>
@@ -616,6 +742,15 @@
     <t xml:space="preserve">Roadstone</t>
   </si>
   <si>
+    <t xml:space="preserve">roadx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Родекс</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roadx</t>
+  </si>
+  <si>
     <t xml:space="preserve">rosava</t>
   </si>
   <si>
@@ -628,6 +763,24 @@
     <t xml:space="preserve">Rosava</t>
   </si>
   <si>
+    <t xml:space="preserve">rovelo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ровело</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rovelo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">royalblack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Роял Блэк</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Royal Black</t>
+  </si>
+  <si>
     <t xml:space="preserve">sailun</t>
   </si>
   <si>
@@ -637,6 +790,15 @@
     <t xml:space="preserve">Sailun</t>
   </si>
   <si>
+    <t xml:space="preserve">satoya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сатоя</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Satoya</t>
+  </si>
+  <si>
     <t xml:space="preserve">sava</t>
   </si>
   <si>
@@ -694,6 +856,15 @@
     <t xml:space="preserve">Sunny</t>
   </si>
   <si>
+    <t xml:space="preserve">supercargo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Суперкарго</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supercargo</t>
+  </si>
+  <si>
     <t xml:space="preserve">taurus</t>
   </si>
   <si>
@@ -808,6 +979,15 @@
     <t xml:space="preserve">WestLake</t>
   </si>
   <si>
+    <t xml:space="preserve">windforce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Виндфорс</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Windforce</t>
+  </si>
+  <si>
     <t xml:space="preserve">yokohama</t>
   </si>
   <si>
@@ -820,151 +1000,532 @@
     <t xml:space="preserve">Yokohama</t>
   </si>
   <si>
-    <t xml:space="preserve">armstrong</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Армстронг</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Armstrong</t>
-  </si>
-  <si>
-    <t xml:space="preserve">blacklion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Блэклайон</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BlackLion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">compasal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Компасал</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compasal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">crystal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кристалл</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crystal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fronway</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Фронвэй</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fronway</t>
-  </si>
-  <si>
-    <t xml:space="preserve">goldshield</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Голдшилд</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Goldshield</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jinyu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Джинью</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JINYU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">leao</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Леао</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leao</t>
-  </si>
-  <si>
-    <t xml:space="preserve">longmarch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Лонгмарч</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LongMarch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">maxell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Макселл</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maxell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">roadshine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Роадшайн</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Roadshine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">roadx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Родекс</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Roadx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">royalblack</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Роял Блэк</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Royal Black</t>
-  </si>
-  <si>
-    <t xml:space="preserve">supercargo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Суперкарго</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Supercargo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">windforce</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Виндфорс</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Windforce</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18/04/2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rovelo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ровело</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rovelo</t>
+    <t xml:space="preserve">annaite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Аннайт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Annaite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">atlas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Атлас</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atlas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">atturo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Аттуро</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atturo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">autogrip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Аутогрип</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Autogrip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bars</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Барс</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bars</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cachland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кэчлэнд</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cachland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">collins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Коллинс</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Collins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">comforser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Комфорсер</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comforser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">contyre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Контайр</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contyre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cordiant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кордиант</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cordiant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cst</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сиэс-ти</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cst</t>
+  </si>
+  <si>
+    <t xml:space="preserve">davanti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Даванти</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Davanti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">delinte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Делинте</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delinte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">diamondback</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Даймондбэк</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diamondback</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ecovision</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Эковижн</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ecovision</t>
+  </si>
+  <si>
+    <t xml:space="preserve">estrada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Эстрада</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estrada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">formula</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Формула</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Formula</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fortuna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фортуна</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fortuna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fullrun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фуллран</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fullrun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fullway</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фуллвэй</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fullway</t>
+  </si>
+  <si>
+    <t xml:space="preserve">funtoma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фунтома</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Funtoma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">general</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Дженерал</t>
+  </si>
+  <si>
+    <t xml:space="preserve">General</t>
+  </si>
+  <si>
+    <t xml:space="preserve">goform</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Гоформ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Goform</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gripmax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Грипмакс</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gripmax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">habilead</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Хабилеад</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Habilead</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ilink</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Айлинк</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ilink</t>
+  </si>
+  <si>
+    <t xml:space="preserve">imperial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Империал</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Imperial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">intertrac</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Интертрак</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intertrac</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kama</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кама</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kama</t>
+  </si>
+  <si>
+    <t xml:space="preserve">keter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кетер</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kinforest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кинфорест</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kinforest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kingrun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кингран</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kingrun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kingstar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кингстар</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kingstar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mazzini</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Маззини</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mazzini</t>
+  </si>
+  <si>
+    <t xml:space="preserve">minerva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Минерва</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minerva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mirage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Мираж</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mirage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">motrio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Мотрио</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Motrio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mrf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МРФ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mrf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">norauto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Норото</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Norauto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">powertrac</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Пауэртрак</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Powertrac</t>
+  </si>
+  <si>
+    <t xml:space="preserve">presa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Преза</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Presa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">radar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Радар</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Radar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">roadcruza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Роудкруза</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roadcruza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">roadmarch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Роудмарч</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roadmarch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rockblade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рокблейд</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rockblade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rotalla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Роталла</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rotalla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">saetta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Саэтта</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saetta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sunfull</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Санфулл</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sunfull</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sunwide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Санвайд</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sunwide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">superia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Суперия</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Superia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">torque</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Торк</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Torque</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tosso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Тоссо</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tosso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tunga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Тунга</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tunga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">viatti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Виатти</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viatti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">winrun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Винран</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Winrun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zeetex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Зитекс</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zeetex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zeta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Зета</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zeta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">belshina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Белшина</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vltr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ВлТР</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26/04</t>
   </si>
 </sst>
 </file>
@@ -1006,12 +1567,18 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -1055,7 +1622,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1072,6 +1639,30 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1081,6 +1672,31 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="3">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
 </styleSheet>
 </file>
 
@@ -1261,16 +1877,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E1048576"/>
+  <dimension ref="A1:E157"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A74" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C97" activeCellId="0" sqref="C97"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A134" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G149" activeCellId="0" sqref="G149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="1" style="1" width="32.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16383" style="1" width="10.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16379" style="1" width="10.16"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1298,14 +1914,14 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3" t="s">
+      <c r="B3" s="5"/>
+      <c r="C3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="4" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1349,1133 +1965,1881 @@
       <c r="A7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="D10" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15" s="3" t="s">
+      <c r="D15" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="D16" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="D18" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="B20" s="5"/>
+      <c r="C20" s="6" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="20" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2" t="s">
+      <c r="D20" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>87</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="B26" s="3"/>
       <c r="C26" s="3" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>91</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="B27" s="3"/>
       <c r="C27" s="3" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B28" s="3"/>
+        <v>89</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>90</v>
+      </c>
       <c r="C28" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B29" s="3"/>
+        <v>93</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>94</v>
+      </c>
       <c r="C29" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B33" s="3"/>
       <c r="C33" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="D34" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3" t="s">
+      <c r="D35" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="D36" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B38" s="3"/>
       <c r="C38" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B39" s="3"/>
       <c r="C39" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>134</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="B40" s="3"/>
       <c r="C40" s="3" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>138</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="B41" s="3"/>
       <c r="C41" s="3" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B42" s="3"/>
       <c r="C42" s="3" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B44" s="3"/>
       <c r="C44" s="3" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="B46" s="3"/>
+        <v>150</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>151</v>
+      </c>
       <c r="C46" s="3" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>159</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="B47" s="3"/>
       <c r="C47" s="3" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B48" s="3"/>
       <c r="C48" s="3" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B49" s="3"/>
       <c r="C49" s="3" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B50" s="3"/>
       <c r="C50" s="3" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="B51" s="3"/>
-      <c r="C51" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>173</v>
+      <c r="A51" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B51" s="5"/>
+      <c r="C51" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="B52" s="3"/>
+        <v>169</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>170</v>
+      </c>
       <c r="C52" s="3" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="B53" s="3"/>
+        <v>173</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>174</v>
+      </c>
       <c r="C53" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>181</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="B54" s="3"/>
       <c r="C54" s="3" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="2" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B55" s="3"/>
       <c r="C55" s="3" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="2" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B57" s="3"/>
       <c r="C57" s="3" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="2" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>199</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="B59" s="3"/>
       <c r="C59" s="3" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="B60" s="3"/>
+        <v>197</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>198</v>
+      </c>
       <c r="C60" s="3" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>206</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="B61" s="3"/>
       <c r="C61" s="3" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="2" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="B62" s="3"/>
       <c r="C62" s="3" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>212</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="B63" s="3"/>
       <c r="C63" s="3" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="2" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="B64" s="3"/>
       <c r="C64" s="3" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="2" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B65" s="3"/>
       <c r="C65" s="3" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="2" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="B66" s="3"/>
       <c r="C66" s="3" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="2" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>229</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="B68" s="3"/>
       <c r="C68" s="3" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="2" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="2" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="B70" s="3"/>
       <c r="C70" s="3" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="2" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="B71" s="3"/>
       <c r="C71" s="3" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="B72" s="3"/>
+        <v>236</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>237</v>
+      </c>
       <c r="C72" s="3" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="2" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="B73" s="3"/>
       <c r="C73" s="3" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="2" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="2" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="B75" s="3"/>
       <c r="C75" s="3" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>256</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="B76" s="3"/>
       <c r="C76" s="3" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="2" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="B77" s="3"/>
       <c r="C77" s="3" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>265</v>
+      <c r="A78" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="B78" s="5"/>
+      <c r="C78" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="B79" s="3"/>
+        <v>259</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>260</v>
+      </c>
       <c r="C79" s="3" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="2" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="B80" s="3"/>
       <c r="C80" s="3" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="B81" s="3"/>
+        <v>266</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>266</v>
+      </c>
       <c r="C81" s="3" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="2" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="B82" s="3"/>
       <c r="C82" s="3" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="2" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="B83" s="3"/>
       <c r="C83" s="3" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="2" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="B84" s="3"/>
       <c r="C84" s="3" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="2" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="B85" s="3"/>
       <c r="C85" s="3" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="B86" s="3"/>
+        <v>281</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>282</v>
+      </c>
       <c r="C86" s="3" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="B87" s="3"/>
+        <v>285</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>286</v>
+      </c>
       <c r="C87" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="B88" s="3"/>
+        <v>289</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>290</v>
+      </c>
       <c r="C88" s="3" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="2" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B89" s="3"/>
       <c r="C89" s="3" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="2" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B90" s="3"/>
       <c r="C90" s="3" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="2" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B91" s="3"/>
       <c r="C91" s="3" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B92" s="3"/>
       <c r="C92" s="3" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="D93" s="2" t="s">
         <v>308</v>
-      </c>
-      <c r="B93" s="3"/>
-      <c r="C93" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="E93" s="1" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="2" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B94" s="3"/>
       <c r="C94" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="B95" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="D94" s="2" t="s">
+      <c r="C95" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="E94" s="1" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="D95" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="B96" s="3"/>
+      <c r="C96" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="B97" s="3"/>
+      <c r="C97" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="B99" s="0"/>
+      <c r="C99" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="D99" s="7" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="B100" s="0"/>
+      <c r="C100" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="D100" s="7" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="B101" s="0"/>
+      <c r="C101" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="D101" s="7" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="B102" s="0"/>
+      <c r="C102" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="D102" s="7" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="B103" s="0"/>
+      <c r="C103" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="D103" s="7" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="B104" s="0"/>
+      <c r="C104" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="D104" s="7" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="B105" s="0"/>
+      <c r="C105" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="D105" s="7" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="B106" s="0"/>
+      <c r="C106" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="D106" s="7" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="B107" s="0"/>
+      <c r="C107" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="D107" s="7" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="B108" s="0"/>
+      <c r="C108" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="D108" s="7" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="B109" s="0"/>
+      <c r="C109" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="D109" s="7" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="B110" s="0"/>
+      <c r="C110" s="8" t="s">
+        <v>360</v>
+      </c>
+      <c r="D110" s="7" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B111" s="0"/>
+      <c r="C111" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="D111" s="7" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B112" s="0"/>
+      <c r="C112" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="D112" s="7" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="B113" s="0"/>
+      <c r="C113" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="D113" s="7" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="B114" s="0"/>
+      <c r="C114" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="D114" s="7" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="B115" s="0"/>
+      <c r="C115" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="D115" s="7" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="B116" s="0"/>
+      <c r="C116" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="D116" s="7" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="B117" s="0"/>
+      <c r="C117" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="D117" s="7" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="B118" s="0"/>
+      <c r="C118" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="D118" s="7" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="B119" s="0"/>
+      <c r="C119" s="8" t="s">
+        <v>387</v>
+      </c>
+      <c r="D119" s="7" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="B120" s="0"/>
+      <c r="C120" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="D120" s="7" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="B121" s="0"/>
+      <c r="C121" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="D121" s="7" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="B122" s="0"/>
+      <c r="C122" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="D122" s="7" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="B123" s="0"/>
+      <c r="C123" s="8" t="s">
+        <v>399</v>
+      </c>
+      <c r="D123" s="7" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="B124" s="0"/>
+      <c r="C124" s="8" t="s">
+        <v>402</v>
+      </c>
+      <c r="D124" s="7" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="B125" s="0"/>
+      <c r="C125" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="D125" s="7" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="B126" s="0"/>
+      <c r="C126" s="8" t="s">
+        <v>408</v>
+      </c>
+      <c r="D126" s="7" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="B127" s="0"/>
+      <c r="C127" s="8" t="s">
+        <v>411</v>
+      </c>
+      <c r="D127" s="7" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="B128" s="0"/>
+      <c r="C128" s="8" t="s">
+        <v>414</v>
+      </c>
+      <c r="D128" s="7" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="B129" s="0"/>
+      <c r="C129" s="8" t="s">
+        <v>417</v>
+      </c>
+      <c r="D129" s="7" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="B130" s="0"/>
+      <c r="C130" s="8" t="s">
+        <v>420</v>
+      </c>
+      <c r="D130" s="7" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="B131" s="0"/>
+      <c r="C131" s="8" t="s">
+        <v>423</v>
+      </c>
+      <c r="D131" s="7" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="B132" s="0"/>
+      <c r="C132" s="8" t="s">
+        <v>426</v>
+      </c>
+      <c r="D132" s="7" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="B133" s="0"/>
+      <c r="C133" s="8" t="s">
+        <v>429</v>
+      </c>
+      <c r="D133" s="7" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="B134" s="0"/>
+      <c r="C134" s="8" t="s">
+        <v>432</v>
+      </c>
+      <c r="D134" s="7" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="B135" s="0"/>
+      <c r="C135" s="8" t="s">
+        <v>435</v>
+      </c>
+      <c r="D135" s="7" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="B136" s="0"/>
+      <c r="C136" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="D136" s="7" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="B137" s="0"/>
+      <c r="C137" s="8" t="s">
+        <v>441</v>
+      </c>
+      <c r="D137" s="7" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="B138" s="0"/>
+      <c r="C138" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="D138" s="7" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="B139" s="0"/>
+      <c r="C139" s="8" t="s">
+        <v>447</v>
+      </c>
+      <c r="D139" s="7" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="B140" s="0"/>
+      <c r="C140" s="8" t="s">
+        <v>450</v>
+      </c>
+      <c r="D140" s="7" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="B141" s="0"/>
+      <c r="C141" s="8" t="s">
+        <v>453</v>
+      </c>
+      <c r="D141" s="7" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="B142" s="0"/>
+      <c r="C142" s="8" t="s">
+        <v>456</v>
+      </c>
+      <c r="D142" s="7" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="B143" s="0"/>
+      <c r="C143" s="8" t="s">
+        <v>459</v>
+      </c>
+      <c r="D143" s="7" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="B144" s="0"/>
+      <c r="C144" s="8" t="s">
+        <v>462</v>
+      </c>
+      <c r="D144" s="7" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="B145" s="0"/>
+      <c r="C145" s="8" t="s">
+        <v>465</v>
+      </c>
+      <c r="D145" s="7" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="B146" s="0"/>
+      <c r="C146" s="8" t="s">
+        <v>468</v>
+      </c>
+      <c r="D146" s="7" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="B147" s="0"/>
+      <c r="C147" s="8" t="s">
+        <v>471</v>
+      </c>
+      <c r="D147" s="7" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="B148" s="0"/>
+      <c r="C148" s="8" t="s">
+        <v>474</v>
+      </c>
+      <c r="D148" s="7" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="B149" s="0"/>
+      <c r="C149" s="8" t="s">
+        <v>477</v>
+      </c>
+      <c r="D149" s="7" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="B150" s="0"/>
+      <c r="C150" s="8" t="s">
+        <v>480</v>
+      </c>
+      <c r="D150" s="7" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="B151" s="0"/>
+      <c r="C151" s="8" t="s">
+        <v>483</v>
+      </c>
+      <c r="D151" s="7" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="B152" s="0"/>
+      <c r="C152" s="8" t="s">
+        <v>486</v>
+      </c>
+      <c r="D152" s="7" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="B153" s="0"/>
+      <c r="C153" s="8" t="s">
+        <v>489</v>
+      </c>
+      <c r="D153" s="7" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="B154" s="0"/>
+      <c r="C154" s="8" t="s">
+        <v>492</v>
+      </c>
+      <c r="D154" s="7" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="B155" s="0"/>
+      <c r="C155" s="8" t="s">
+        <v>495</v>
+      </c>
+      <c r="D155" s="7" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="B156" s="0"/>
+      <c r="C156" s="8"/>
+      <c r="D156" s="7" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="4" t="s">
+        <v>499</v>
+      </c>
+      <c r="B157" s="5"/>
+      <c r="C157" s="9"/>
+      <c r="D157" s="4" t="s">
+        <v>500</v>
+      </c>
+      <c r="E157" s="5" t="s">
+        <v>501</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>

--- a/lib/brands.xlsx
+++ b/lib/brands.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="558">
   <si>
     <t xml:space="preserve">accelera</t>
   </si>
@@ -1526,6 +1526,174 @@
   </si>
   <si>
     <t xml:space="preserve">26/04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alst</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Алст</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alst</t>
+  </si>
+  <si>
+    <t xml:space="preserve">disla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Дисла</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">К7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Мак</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">momo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Momo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Момо </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Momo Italy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рейсинг</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Racing wheels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рэдс</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">remain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ремэйн</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">replica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Реплика</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Replica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">skov</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сков Cтил</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Skov steel wheels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sportmaxracing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Спортмакс Рейсинг</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sportmax racing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">techline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Тэклайн</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Techline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trebl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Требл</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trebl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vector</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вектор</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vector</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wsp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WSP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wsp italy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xtrike</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Икс-трайк</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X'trike</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zorat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Зорат </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zorat wheels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gaz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">газ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Дорожная Карта</t>
   </si>
 </sst>
 </file>
@@ -1536,7 +1704,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1565,6 +1733,18 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1622,7 +1802,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1639,6 +1819,26 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1647,20 +1847,16 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1672,31 +1868,6 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
 </styleSheet>
 </file>
 
@@ -1877,10 +2048,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E157"/>
+  <dimension ref="A1:XFD1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A134" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G149" activeCellId="0" sqref="G149"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A143" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C179" activeCellId="0" sqref="C179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3134,696 +3305,638 @@
       </c>
     </row>
     <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="7" t="s">
+      <c r="A99" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="B99" s="0"/>
-      <c r="C99" s="8" t="s">
+      <c r="C99" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="D99" s="7" t="s">
+      <c r="D99" s="2" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="7" t="s">
+      <c r="A100" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="B100" s="0"/>
-      <c r="C100" s="8" t="s">
+      <c r="C100" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="D100" s="7" t="s">
+      <c r="D100" s="2" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="7" t="s">
+      <c r="A101" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="B101" s="0"/>
-      <c r="C101" s="8" t="s">
+      <c r="C101" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="D101" s="7" t="s">
+      <c r="D101" s="2" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="7" t="s">
+      <c r="A102" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="B102" s="0"/>
-      <c r="C102" s="8" t="s">
+      <c r="C102" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="D102" s="7" t="s">
+      <c r="D102" s="2" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="7" t="s">
+      <c r="A103" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="B103" s="0"/>
-      <c r="C103" s="8" t="s">
+      <c r="C103" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="D103" s="7" t="s">
+      <c r="D103" s="2" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="7" t="s">
+      <c r="A104" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="B104" s="0"/>
-      <c r="C104" s="8" t="s">
+      <c r="C104" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="D104" s="7" t="s">
+      <c r="D104" s="2" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="7" t="s">
+      <c r="A105" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="B105" s="0"/>
-      <c r="C105" s="8" t="s">
+      <c r="C105" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="D105" s="7" t="s">
+      <c r="D105" s="2" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="7" t="s">
+      <c r="A106" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="B106" s="0"/>
-      <c r="C106" s="8" t="s">
+      <c r="C106" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="D106" s="7" t="s">
+      <c r="D106" s="2" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="7" t="s">
+      <c r="A107" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="B107" s="0"/>
-      <c r="C107" s="8" t="s">
+      <c r="C107" s="7" t="s">
         <v>351</v>
       </c>
-      <c r="D107" s="7" t="s">
+      <c r="D107" s="2" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="7" t="s">
+      <c r="A108" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="B108" s="0"/>
-      <c r="C108" s="8" t="s">
+      <c r="C108" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="D108" s="7" t="s">
+      <c r="D108" s="2" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="7" t="s">
+      <c r="A109" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="B109" s="0"/>
-      <c r="C109" s="8" t="s">
+      <c r="C109" s="7" t="s">
         <v>357</v>
       </c>
-      <c r="D109" s="7" t="s">
+      <c r="D109" s="2" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="7" t="s">
+      <c r="A110" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="B110" s="0"/>
-      <c r="C110" s="8" t="s">
+      <c r="C110" s="7" t="s">
         <v>360</v>
       </c>
-      <c r="D110" s="7" t="s">
+      <c r="D110" s="2" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="7" t="s">
+      <c r="A111" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="B111" s="0"/>
-      <c r="C111" s="8" t="s">
+      <c r="C111" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="D111" s="7" t="s">
+      <c r="D111" s="2" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="7" t="s">
+      <c r="A112" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="B112" s="0"/>
-      <c r="C112" s="8" t="s">
+      <c r="C112" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="D112" s="7" t="s">
+      <c r="D112" s="2" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="7" t="s">
+      <c r="A113" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="B113" s="0"/>
-      <c r="C113" s="8" t="s">
+      <c r="C113" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="D113" s="7" t="s">
+      <c r="D113" s="2" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="7" t="s">
+      <c r="A114" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="B114" s="0"/>
-      <c r="C114" s="8" t="s">
+      <c r="C114" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="D114" s="7" t="s">
+      <c r="D114" s="2" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="7" t="s">
+      <c r="A115" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="B115" s="0"/>
-      <c r="C115" s="8" t="s">
+      <c r="C115" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="D115" s="7" t="s">
+      <c r="D115" s="2" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="7" t="s">
+      <c r="A116" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="B116" s="0"/>
-      <c r="C116" s="8" t="s">
+      <c r="C116" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="D116" s="7" t="s">
+      <c r="D116" s="2" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="7" t="s">
+      <c r="A117" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="B117" s="0"/>
-      <c r="C117" s="8" t="s">
+      <c r="C117" s="7" t="s">
         <v>381</v>
       </c>
-      <c r="D117" s="7" t="s">
+      <c r="D117" s="2" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="7" t="s">
+      <c r="A118" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="B118" s="0"/>
-      <c r="C118" s="8" t="s">
+      <c r="C118" s="7" t="s">
         <v>384</v>
       </c>
-      <c r="D118" s="7" t="s">
+      <c r="D118" s="2" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="7" t="s">
+      <c r="A119" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="B119" s="0"/>
-      <c r="C119" s="8" t="s">
+      <c r="C119" s="7" t="s">
         <v>387</v>
       </c>
-      <c r="D119" s="7" t="s">
+      <c r="D119" s="2" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="7" t="s">
+      <c r="A120" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="B120" s="0"/>
-      <c r="C120" s="8" t="s">
+      <c r="C120" s="7" t="s">
         <v>390</v>
       </c>
-      <c r="D120" s="7" t="s">
+      <c r="D120" s="2" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="7" t="s">
+      <c r="A121" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="B121" s="0"/>
-      <c r="C121" s="8" t="s">
+      <c r="C121" s="7" t="s">
         <v>393</v>
       </c>
-      <c r="D121" s="7" t="s">
+      <c r="D121" s="2" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="7" t="s">
+      <c r="A122" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="B122" s="0"/>
-      <c r="C122" s="8" t="s">
+      <c r="C122" s="7" t="s">
         <v>396</v>
       </c>
-      <c r="D122" s="7" t="s">
+      <c r="D122" s="2" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="7" t="s">
+      <c r="A123" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="B123" s="0"/>
-      <c r="C123" s="8" t="s">
+      <c r="C123" s="7" t="s">
         <v>399</v>
       </c>
-      <c r="D123" s="7" t="s">
+      <c r="D123" s="2" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="7" t="s">
+      <c r="A124" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="B124" s="0"/>
-      <c r="C124" s="8" t="s">
+      <c r="C124" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="D124" s="7" t="s">
+      <c r="D124" s="2" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="7" t="s">
+      <c r="A125" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="B125" s="0"/>
-      <c r="C125" s="8" t="s">
+      <c r="C125" s="7" t="s">
         <v>405</v>
       </c>
-      <c r="D125" s="7" t="s">
+      <c r="D125" s="2" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="7" t="s">
+      <c r="A126" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="B126" s="0"/>
-      <c r="C126" s="8" t="s">
+      <c r="C126" s="7" t="s">
         <v>408</v>
       </c>
-      <c r="D126" s="7" t="s">
+      <c r="D126" s="2" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="7" t="s">
+      <c r="A127" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="B127" s="0"/>
-      <c r="C127" s="8" t="s">
+      <c r="C127" s="7" t="s">
         <v>411</v>
       </c>
-      <c r="D127" s="7" t="s">
+      <c r="D127" s="2" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="7" t="s">
+      <c r="A128" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="B128" s="0"/>
-      <c r="C128" s="8" t="s">
+      <c r="C128" s="7" t="s">
         <v>414</v>
       </c>
-      <c r="D128" s="7" t="s">
+      <c r="D128" s="2" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="7" t="s">
+      <c r="A129" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="B129" s="0"/>
-      <c r="C129" s="8" t="s">
+      <c r="C129" s="7" t="s">
         <v>417</v>
       </c>
-      <c r="D129" s="7" t="s">
+      <c r="D129" s="2" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="7" t="s">
+      <c r="A130" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="B130" s="0"/>
-      <c r="C130" s="8" t="s">
+      <c r="C130" s="7" t="s">
         <v>420</v>
       </c>
-      <c r="D130" s="7" t="s">
+      <c r="D130" s="2" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="7" t="s">
+      <c r="A131" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="B131" s="0"/>
-      <c r="C131" s="8" t="s">
+      <c r="C131" s="7" t="s">
         <v>423</v>
       </c>
-      <c r="D131" s="7" t="s">
+      <c r="D131" s="2" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="7" t="s">
+      <c r="A132" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="B132" s="0"/>
-      <c r="C132" s="8" t="s">
+      <c r="C132" s="7" t="s">
         <v>426</v>
       </c>
-      <c r="D132" s="7" t="s">
+      <c r="D132" s="2" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="7" t="s">
+      <c r="A133" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="B133" s="0"/>
-      <c r="C133" s="8" t="s">
+      <c r="C133" s="7" t="s">
         <v>429</v>
       </c>
-      <c r="D133" s="7" t="s">
+      <c r="D133" s="2" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="7" t="s">
+      <c r="A134" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="B134" s="0"/>
-      <c r="C134" s="8" t="s">
+      <c r="C134" s="7" t="s">
         <v>432</v>
       </c>
-      <c r="D134" s="7" t="s">
+      <c r="D134" s="2" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="7" t="s">
+      <c r="A135" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="B135" s="0"/>
-      <c r="C135" s="8" t="s">
+      <c r="C135" s="7" t="s">
         <v>435</v>
       </c>
-      <c r="D135" s="7" t="s">
+      <c r="D135" s="2" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="7" t="s">
+      <c r="A136" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="B136" s="0"/>
-      <c r="C136" s="8" t="s">
+      <c r="C136" s="7" t="s">
         <v>438</v>
       </c>
-      <c r="D136" s="7" t="s">
+      <c r="D136" s="2" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="7" t="s">
+      <c r="A137" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="B137" s="0"/>
-      <c r="C137" s="8" t="s">
+      <c r="C137" s="7" t="s">
         <v>441</v>
       </c>
-      <c r="D137" s="7" t="s">
+      <c r="D137" s="2" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="7" t="s">
+      <c r="A138" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="B138" s="0"/>
-      <c r="C138" s="8" t="s">
+      <c r="C138" s="7" t="s">
         <v>444</v>
       </c>
-      <c r="D138" s="7" t="s">
+      <c r="D138" s="2" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="7" t="s">
+      <c r="A139" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="B139" s="0"/>
-      <c r="C139" s="8" t="s">
+      <c r="C139" s="7" t="s">
         <v>447</v>
       </c>
-      <c r="D139" s="7" t="s">
+      <c r="D139" s="2" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="7" t="s">
+      <c r="A140" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="B140" s="0"/>
-      <c r="C140" s="8" t="s">
+      <c r="C140" s="7" t="s">
         <v>450</v>
       </c>
-      <c r="D140" s="7" t="s">
+      <c r="D140" s="2" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="7" t="s">
+      <c r="A141" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="B141" s="0"/>
-      <c r="C141" s="8" t="s">
+      <c r="C141" s="7" t="s">
         <v>453</v>
       </c>
-      <c r="D141" s="7" t="s">
+      <c r="D141" s="2" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="7" t="s">
+      <c r="A142" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="B142" s="0"/>
-      <c r="C142" s="8" t="s">
+      <c r="C142" s="7" t="s">
         <v>456</v>
       </c>
-      <c r="D142" s="7" t="s">
+      <c r="D142" s="2" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="7" t="s">
+      <c r="A143" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="B143" s="0"/>
-      <c r="C143" s="8" t="s">
+      <c r="C143" s="7" t="s">
         <v>459</v>
       </c>
-      <c r="D143" s="7" t="s">
+      <c r="D143" s="2" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="7" t="s">
+      <c r="A144" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="B144" s="0"/>
-      <c r="C144" s="8" t="s">
+      <c r="C144" s="7" t="s">
         <v>462</v>
       </c>
-      <c r="D144" s="7" t="s">
+      <c r="D144" s="2" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="7" t="s">
+      <c r="A145" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="B145" s="0"/>
-      <c r="C145" s="8" t="s">
+      <c r="C145" s="7" t="s">
         <v>465</v>
       </c>
-      <c r="D145" s="7" t="s">
+      <c r="D145" s="2" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="7" t="s">
+      <c r="A146" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="B146" s="0"/>
-      <c r="C146" s="8" t="s">
+      <c r="C146" s="7" t="s">
         <v>468</v>
       </c>
-      <c r="D146" s="7" t="s">
+      <c r="D146" s="2" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="7" t="s">
+      <c r="A147" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="B147" s="0"/>
-      <c r="C147" s="8" t="s">
+      <c r="C147" s="7" t="s">
         <v>471</v>
       </c>
-      <c r="D147" s="7" t="s">
+      <c r="D147" s="2" t="s">
         <v>472</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="7" t="s">
+      <c r="A148" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="B148" s="0"/>
-      <c r="C148" s="8" t="s">
+      <c r="C148" s="7" t="s">
         <v>474</v>
       </c>
-      <c r="D148" s="7" t="s">
+      <c r="D148" s="2" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="7" t="s">
+      <c r="A149" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="B149" s="0"/>
-      <c r="C149" s="8" t="s">
+      <c r="C149" s="7" t="s">
         <v>477</v>
       </c>
-      <c r="D149" s="7" t="s">
+      <c r="D149" s="2" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="7" t="s">
+      <c r="A150" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="B150" s="0"/>
-      <c r="C150" s="8" t="s">
+      <c r="C150" s="7" t="s">
         <v>480</v>
       </c>
-      <c r="D150" s="7" t="s">
+      <c r="D150" s="2" t="s">
         <v>481</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="7" t="s">
+      <c r="A151" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="B151" s="0"/>
-      <c r="C151" s="8" t="s">
+      <c r="C151" s="7" t="s">
         <v>483</v>
       </c>
-      <c r="D151" s="7" t="s">
+      <c r="D151" s="2" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="7" t="s">
+      <c r="A152" s="2" t="s">
         <v>485</v>
       </c>
-      <c r="B152" s="0"/>
-      <c r="C152" s="8" t="s">
+      <c r="C152" s="7" t="s">
         <v>486</v>
       </c>
-      <c r="D152" s="7" t="s">
+      <c r="D152" s="2" t="s">
         <v>487</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="7" t="s">
+      <c r="A153" s="2" t="s">
         <v>488</v>
       </c>
-      <c r="B153" s="0"/>
-      <c r="C153" s="8" t="s">
+      <c r="C153" s="7" t="s">
         <v>489</v>
       </c>
-      <c r="D153" s="7" t="s">
+      <c r="D153" s="2" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="7" t="s">
+      <c r="A154" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="B154" s="0"/>
-      <c r="C154" s="8" t="s">
+      <c r="C154" s="7" t="s">
         <v>492</v>
       </c>
-      <c r="D154" s="7" t="s">
+      <c r="D154" s="2" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="7" t="s">
+      <c r="A155" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="B155" s="0"/>
-      <c r="C155" s="8" t="s">
+      <c r="C155" s="7" t="s">
         <v>495</v>
       </c>
-      <c r="D155" s="7" t="s">
+      <c r="D155" s="2" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="7" t="s">
+      <c r="A156" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="B156" s="0"/>
-      <c r="C156" s="8"/>
-      <c r="D156" s="7" t="s">
+      <c r="C156" s="7"/>
+      <c r="D156" s="2" t="s">
         <v>498</v>
       </c>
     </row>
@@ -3832,7 +3945,7 @@
         <v>499</v>
       </c>
       <c r="B157" s="5"/>
-      <c r="C157" s="9"/>
+      <c r="C157" s="8"/>
       <c r="D157" s="4" t="s">
         <v>500</v>
       </c>
@@ -3840,6 +3953,330 @@
         <v>501</v>
       </c>
     </row>
+    <row r="158" s="10" customFormat="true" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="9" t="s">
+        <v>502</v>
+      </c>
+      <c r="C158" s="11" t="s">
+        <v>503</v>
+      </c>
+      <c r="D158" s="9" t="s">
+        <v>504</v>
+      </c>
+      <c r="XEY158" s="5"/>
+      <c r="XEZ158" s="5"/>
+      <c r="XFA158" s="5"/>
+      <c r="XFB158" s="5"/>
+      <c r="XFC158" s="5"/>
+      <c r="XFD158" s="5"/>
+    </row>
+    <row r="159" s="10" customFormat="true" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="9" t="s">
+        <v>505</v>
+      </c>
+      <c r="C159" s="11" t="s">
+        <v>506</v>
+      </c>
+      <c r="D159" s="9" t="s">
+        <v>507</v>
+      </c>
+      <c r="XEY159" s="5"/>
+      <c r="XEZ159" s="5"/>
+      <c r="XFA159" s="5"/>
+      <c r="XFB159" s="5"/>
+      <c r="XFC159" s="5"/>
+      <c r="XFD159" s="5"/>
+    </row>
+    <row r="160" s="10" customFormat="true" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="9" t="s">
+        <v>508</v>
+      </c>
+      <c r="C160" s="11" t="s">
+        <v>509</v>
+      </c>
+      <c r="D160" s="9" t="s">
+        <v>510</v>
+      </c>
+      <c r="XEY160" s="5"/>
+      <c r="XEZ160" s="5"/>
+      <c r="XFA160" s="5"/>
+      <c r="XFB160" s="5"/>
+      <c r="XFC160" s="5"/>
+      <c r="XFD160" s="5"/>
+    </row>
+    <row r="161" s="10" customFormat="true" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="9" t="s">
+        <v>511</v>
+      </c>
+      <c r="C161" s="11" t="s">
+        <v>512</v>
+      </c>
+      <c r="D161" s="9" t="s">
+        <v>513</v>
+      </c>
+      <c r="XEY161" s="5"/>
+      <c r="XEZ161" s="5"/>
+      <c r="XFA161" s="5"/>
+      <c r="XFB161" s="5"/>
+      <c r="XFC161" s="5"/>
+      <c r="XFD161" s="5"/>
+    </row>
+    <row r="162" s="10" customFormat="true" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="9" t="s">
+        <v>514</v>
+      </c>
+      <c r="B162" s="12" t="s">
+        <v>515</v>
+      </c>
+      <c r="C162" s="11" t="s">
+        <v>516</v>
+      </c>
+      <c r="D162" s="9" t="s">
+        <v>517</v>
+      </c>
+      <c r="XEY162" s="5"/>
+      <c r="XEZ162" s="5"/>
+      <c r="XFA162" s="5"/>
+      <c r="XFB162" s="5"/>
+      <c r="XFC162" s="5"/>
+      <c r="XFD162" s="5"/>
+    </row>
+    <row r="163" s="10" customFormat="true" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="9" t="s">
+        <v>518</v>
+      </c>
+      <c r="B163" s="13"/>
+      <c r="C163" s="11" t="s">
+        <v>519</v>
+      </c>
+      <c r="D163" s="9" t="s">
+        <v>520</v>
+      </c>
+      <c r="XEY163" s="5"/>
+      <c r="XEZ163" s="5"/>
+      <c r="XFA163" s="5"/>
+      <c r="XFB163" s="5"/>
+      <c r="XFC163" s="5"/>
+      <c r="XFD163" s="5"/>
+    </row>
+    <row r="164" s="10" customFormat="true" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="9" t="s">
+        <v>521</v>
+      </c>
+      <c r="C164" s="11" t="s">
+        <v>522</v>
+      </c>
+      <c r="D164" s="9" t="s">
+        <v>523</v>
+      </c>
+      <c r="XEY164" s="5"/>
+      <c r="XEZ164" s="5"/>
+      <c r="XFA164" s="5"/>
+      <c r="XFB164" s="5"/>
+      <c r="XFC164" s="5"/>
+      <c r="XFD164" s="5"/>
+    </row>
+    <row r="165" s="10" customFormat="true" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="9" t="s">
+        <v>524</v>
+      </c>
+      <c r="C165" s="11" t="s">
+        <v>525</v>
+      </c>
+      <c r="D165" s="9" t="s">
+        <v>526</v>
+      </c>
+      <c r="XEY165" s="5"/>
+      <c r="XEZ165" s="5"/>
+      <c r="XFA165" s="5"/>
+      <c r="XFB165" s="5"/>
+      <c r="XFC165" s="5"/>
+      <c r="XFD165" s="5"/>
+    </row>
+    <row r="166" s="10" customFormat="true" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="9" t="s">
+        <v>527</v>
+      </c>
+      <c r="C166" s="11" t="s">
+        <v>528</v>
+      </c>
+      <c r="D166" s="9" t="s">
+        <v>529</v>
+      </c>
+      <c r="XEY166" s="5"/>
+      <c r="XEZ166" s="5"/>
+      <c r="XFA166" s="5"/>
+      <c r="XFB166" s="5"/>
+      <c r="XFC166" s="5"/>
+      <c r="XFD166" s="5"/>
+    </row>
+    <row r="167" s="10" customFormat="true" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="9" t="s">
+        <v>530</v>
+      </c>
+      <c r="C167" s="11" t="s">
+        <v>531</v>
+      </c>
+      <c r="D167" s="9" t="s">
+        <v>532</v>
+      </c>
+      <c r="XEY167" s="5"/>
+      <c r="XEZ167" s="5"/>
+      <c r="XFA167" s="5"/>
+      <c r="XFB167" s="5"/>
+      <c r="XFC167" s="5"/>
+      <c r="XFD167" s="5"/>
+    </row>
+    <row r="168" s="10" customFormat="true" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="9" t="s">
+        <v>533</v>
+      </c>
+      <c r="C168" s="11" t="s">
+        <v>534</v>
+      </c>
+      <c r="D168" s="9" t="s">
+        <v>535</v>
+      </c>
+      <c r="XEY168" s="5"/>
+      <c r="XEZ168" s="5"/>
+      <c r="XFA168" s="5"/>
+      <c r="XFB168" s="5"/>
+      <c r="XFC168" s="5"/>
+      <c r="XFD168" s="5"/>
+    </row>
+    <row r="169" s="10" customFormat="true" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="9" t="s">
+        <v>536</v>
+      </c>
+      <c r="C169" s="11" t="s">
+        <v>537</v>
+      </c>
+      <c r="D169" s="9" t="s">
+        <v>538</v>
+      </c>
+      <c r="XEY169" s="5"/>
+      <c r="XEZ169" s="5"/>
+      <c r="XFA169" s="5"/>
+      <c r="XFB169" s="5"/>
+      <c r="XFC169" s="5"/>
+      <c r="XFD169" s="5"/>
+    </row>
+    <row r="170" s="10" customFormat="true" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="9" t="s">
+        <v>539</v>
+      </c>
+      <c r="C170" s="11" t="s">
+        <v>540</v>
+      </c>
+      <c r="D170" s="9" t="s">
+        <v>541</v>
+      </c>
+      <c r="XEY170" s="5"/>
+      <c r="XEZ170" s="5"/>
+      <c r="XFA170" s="5"/>
+      <c r="XFB170" s="5"/>
+      <c r="XFC170" s="5"/>
+      <c r="XFD170" s="5"/>
+    </row>
+    <row r="171" s="10" customFormat="true" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="9" t="s">
+        <v>542</v>
+      </c>
+      <c r="C171" s="11" t="s">
+        <v>543</v>
+      </c>
+      <c r="D171" s="9" t="s">
+        <v>544</v>
+      </c>
+      <c r="XEY171" s="5"/>
+      <c r="XEZ171" s="5"/>
+      <c r="XFA171" s="5"/>
+      <c r="XFB171" s="5"/>
+      <c r="XFC171" s="5"/>
+      <c r="XFD171" s="5"/>
+    </row>
+    <row r="172" s="10" customFormat="true" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="9" t="s">
+        <v>545</v>
+      </c>
+      <c r="B172" s="13"/>
+      <c r="C172" s="11" t="s">
+        <v>546</v>
+      </c>
+      <c r="D172" s="9" t="s">
+        <v>547</v>
+      </c>
+      <c r="XEY172" s="5"/>
+      <c r="XEZ172" s="5"/>
+      <c r="XFA172" s="5"/>
+      <c r="XFB172" s="5"/>
+      <c r="XFC172" s="5"/>
+      <c r="XFD172" s="5"/>
+    </row>
+    <row r="173" s="10" customFormat="true" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="9" t="s">
+        <v>548</v>
+      </c>
+      <c r="C173" s="11" t="s">
+        <v>549</v>
+      </c>
+      <c r="D173" s="9" t="s">
+        <v>550</v>
+      </c>
+      <c r="XEY173" s="5"/>
+      <c r="XEZ173" s="5"/>
+      <c r="XFA173" s="5"/>
+      <c r="XFB173" s="5"/>
+      <c r="XFC173" s="5"/>
+      <c r="XFD173" s="5"/>
+    </row>
+    <row r="174" s="10" customFormat="true" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="9" t="s">
+        <v>551</v>
+      </c>
+      <c r="C174" s="11" t="s">
+        <v>552</v>
+      </c>
+      <c r="D174" s="9" t="s">
+        <v>553</v>
+      </c>
+      <c r="XEY174" s="5"/>
+      <c r="XEZ174" s="5"/>
+      <c r="XFA174" s="5"/>
+      <c r="XFB174" s="5"/>
+      <c r="XFC174" s="5"/>
+      <c r="XFD174" s="5"/>
+    </row>
+    <row r="175" s="10" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="9" t="s">
+        <v>554</v>
+      </c>
+      <c r="D175" s="9" t="s">
+        <v>555</v>
+      </c>
+      <c r="XEY175" s="5"/>
+      <c r="XEZ175" s="5"/>
+      <c r="XFA175" s="5"/>
+      <c r="XFB175" s="5"/>
+      <c r="XFC175" s="5"/>
+      <c r="XFD175" s="5"/>
+    </row>
+    <row r="176" s="10" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="9" t="s">
+        <v>556</v>
+      </c>
+      <c r="D176" s="9" t="s">
+        <v>557</v>
+      </c>
+      <c r="XEY176" s="5"/>
+      <c r="XEZ176" s="5"/>
+      <c r="XFA176" s="5"/>
+      <c r="XFB176" s="5"/>
+      <c r="XFC176" s="5"/>
+      <c r="XFD176" s="5"/>
+    </row>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>

--- a/lib/brands.xlsx
+++ b/lib/brands.xlsx
@@ -1739,12 +1739,14 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1802,7 +1804,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1839,23 +1841,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2048,15 +2038,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:XFD1048576"/>
+  <dimension ref="A1:F1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A143" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C179" activeCellId="0" sqref="C179"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A139" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E158" activeCellId="0" sqref="E158:E176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="1" style="1" width="32.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16379" style="1" width="10.16"/>
   </cols>
   <sheetData>
@@ -2071,6 +2062,9 @@
       <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="E1" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
@@ -2083,6 +2077,9 @@
       <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="E2" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
@@ -2095,6 +2092,9 @@
       <c r="D3" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="E3" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
@@ -2107,6 +2107,9 @@
       <c r="D4" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="E4" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
@@ -2119,6 +2122,9 @@
       <c r="D5" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="E5" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
@@ -2131,6 +2137,9 @@
       <c r="D6" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="E6" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
@@ -2143,6 +2152,9 @@
       <c r="D7" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="E7" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
@@ -2155,6 +2167,9 @@
       <c r="D8" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="E8" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
@@ -2169,6 +2184,9 @@
       <c r="D9" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="E9" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
@@ -2183,6 +2201,9 @@
       <c r="D10" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="E10" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
@@ -2195,6 +2216,9 @@
       <c r="D11" s="2" t="s">
         <v>34</v>
       </c>
+      <c r="E11" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
@@ -2209,6 +2233,9 @@
       <c r="D12" s="2" t="s">
         <v>38</v>
       </c>
+      <c r="E12" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
@@ -2221,6 +2248,9 @@
       <c r="D13" s="2" t="s">
         <v>41</v>
       </c>
+      <c r="E13" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
@@ -2235,6 +2265,9 @@
       <c r="D14" s="2" t="s">
         <v>45</v>
       </c>
+      <c r="E14" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
@@ -2249,6 +2282,9 @@
       <c r="D15" s="2" t="s">
         <v>49</v>
       </c>
+      <c r="E15" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
@@ -2261,6 +2297,9 @@
       <c r="D16" s="2" t="s">
         <v>52</v>
       </c>
+      <c r="E16" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
@@ -2273,6 +2312,9 @@
       <c r="D17" s="2" t="s">
         <v>55</v>
       </c>
+      <c r="E17" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
@@ -2287,6 +2329,9 @@
       <c r="D18" s="2" t="s">
         <v>59</v>
       </c>
+      <c r="E18" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
@@ -2299,6 +2344,9 @@
       <c r="D19" s="2" t="s">
         <v>62</v>
       </c>
+      <c r="E19" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
@@ -2311,6 +2359,9 @@
       <c r="D20" s="4" t="s">
         <v>65</v>
       </c>
+      <c r="E20" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
@@ -2325,6 +2376,9 @@
       <c r="D21" s="2" t="s">
         <v>68</v>
       </c>
+      <c r="E21" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
@@ -2339,6 +2393,9 @@
       <c r="D22" s="2" t="s">
         <v>72</v>
       </c>
+      <c r="E22" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
@@ -2351,6 +2408,9 @@
       <c r="D23" s="2" t="s">
         <v>75</v>
       </c>
+      <c r="E23" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
@@ -2365,6 +2425,9 @@
       <c r="D24" s="2" t="s">
         <v>79</v>
       </c>
+      <c r="E24" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
@@ -2377,6 +2440,9 @@
       <c r="D25" s="2" t="s">
         <v>82</v>
       </c>
+      <c r="E25" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
@@ -2389,6 +2455,9 @@
       <c r="D26" s="2" t="s">
         <v>85</v>
       </c>
+      <c r="E26" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
@@ -2401,6 +2470,9 @@
       <c r="D27" s="2" t="s">
         <v>88</v>
       </c>
+      <c r="E27" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
@@ -2415,6 +2487,9 @@
       <c r="D28" s="2" t="s">
         <v>92</v>
       </c>
+      <c r="E28" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
@@ -2429,6 +2504,9 @@
       <c r="D29" s="2" t="s">
         <v>96</v>
       </c>
+      <c r="E29" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
@@ -2441,6 +2519,9 @@
       <c r="D30" s="2" t="s">
         <v>99</v>
       </c>
+      <c r="E30" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
@@ -2453,6 +2534,9 @@
       <c r="D31" s="2" t="s">
         <v>102</v>
       </c>
+      <c r="E31" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
@@ -2467,6 +2551,9 @@
       <c r="D32" s="2" t="s">
         <v>106</v>
       </c>
+      <c r="E32" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
@@ -2479,6 +2566,9 @@
       <c r="D33" s="2" t="s">
         <v>109</v>
       </c>
+      <c r="E33" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
@@ -2493,6 +2583,9 @@
       <c r="D34" s="2" t="s">
         <v>113</v>
       </c>
+      <c r="E34" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
@@ -2507,6 +2600,9 @@
       <c r="D35" s="2" t="s">
         <v>117</v>
       </c>
+      <c r="E35" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
@@ -2519,6 +2615,9 @@
       <c r="D36" s="2" t="s">
         <v>120</v>
       </c>
+      <c r="E36" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
@@ -2531,6 +2630,9 @@
       <c r="D37" s="2" t="s">
         <v>123</v>
       </c>
+      <c r="E37" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
@@ -2543,6 +2645,9 @@
       <c r="D38" s="2" t="s">
         <v>126</v>
       </c>
+      <c r="E38" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
@@ -2555,6 +2660,9 @@
       <c r="D39" s="2" t="s">
         <v>129</v>
       </c>
+      <c r="E39" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
@@ -2567,6 +2675,9 @@
       <c r="D40" s="2" t="s">
         <v>132</v>
       </c>
+      <c r="E40" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
@@ -2579,6 +2690,9 @@
       <c r="D41" s="2" t="s">
         <v>135</v>
       </c>
+      <c r="E41" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="s">
@@ -2591,6 +2705,9 @@
       <c r="D42" s="2" t="s">
         <v>138</v>
       </c>
+      <c r="E42" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="s">
@@ -2605,6 +2722,9 @@
       <c r="D43" s="2" t="s">
         <v>142</v>
       </c>
+      <c r="E43" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="s">
@@ -2617,6 +2737,9 @@
       <c r="D44" s="2" t="s">
         <v>145</v>
       </c>
+      <c r="E44" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="s">
@@ -2631,6 +2754,9 @@
       <c r="D45" s="2" t="s">
         <v>149</v>
       </c>
+      <c r="E45" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="s">
@@ -2645,6 +2771,9 @@
       <c r="D46" s="2" t="s">
         <v>153</v>
       </c>
+      <c r="E46" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="s">
@@ -2657,6 +2786,9 @@
       <c r="D47" s="2" t="s">
         <v>156</v>
       </c>
+      <c r="E47" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="s">
@@ -2669,6 +2801,9 @@
       <c r="D48" s="2" t="s">
         <v>159</v>
       </c>
+      <c r="E48" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="s">
@@ -2681,6 +2816,9 @@
       <c r="D49" s="2" t="s">
         <v>162</v>
       </c>
+      <c r="E49" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="s">
@@ -2693,6 +2831,9 @@
       <c r="D50" s="2" t="s">
         <v>165</v>
       </c>
+      <c r="E50" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="4" t="s">
@@ -2705,6 +2846,9 @@
       <c r="D51" s="4" t="s">
         <v>168</v>
       </c>
+      <c r="E51" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="2" t="s">
@@ -2719,6 +2863,9 @@
       <c r="D52" s="2" t="s">
         <v>172</v>
       </c>
+      <c r="E52" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="2" t="s">
@@ -2733,6 +2880,9 @@
       <c r="D53" s="2" t="s">
         <v>176</v>
       </c>
+      <c r="E53" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="2" t="s">
@@ -2745,6 +2895,9 @@
       <c r="D54" s="2" t="s">
         <v>179</v>
       </c>
+      <c r="E54" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="2" t="s">
@@ -2757,6 +2910,9 @@
       <c r="D55" s="2" t="s">
         <v>182</v>
       </c>
+      <c r="E55" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="2" t="s">
@@ -2771,6 +2927,9 @@
       <c r="D56" s="2" t="s">
         <v>186</v>
       </c>
+      <c r="E56" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="2" t="s">
@@ -2783,6 +2942,9 @@
       <c r="D57" s="2" t="s">
         <v>189</v>
       </c>
+      <c r="E57" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="2" t="s">
@@ -2797,6 +2959,9 @@
       <c r="D58" s="2" t="s">
         <v>193</v>
       </c>
+      <c r="E58" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="2" t="s">
@@ -2809,6 +2974,9 @@
       <c r="D59" s="2" t="s">
         <v>196</v>
       </c>
+      <c r="E59" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="2" t="s">
@@ -2823,6 +2991,9 @@
       <c r="D60" s="2" t="s">
         <v>200</v>
       </c>
+      <c r="E60" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="2" t="s">
@@ -2835,6 +3006,9 @@
       <c r="D61" s="2" t="s">
         <v>203</v>
       </c>
+      <c r="E61" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="2" t="s">
@@ -2847,6 +3021,9 @@
       <c r="D62" s="2" t="s">
         <v>206</v>
       </c>
+      <c r="E62" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="2" t="s">
@@ -2859,6 +3036,9 @@
       <c r="D63" s="2" t="s">
         <v>209</v>
       </c>
+      <c r="E63" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="2" t="s">
@@ -2871,6 +3051,9 @@
       <c r="D64" s="2" t="s">
         <v>212</v>
       </c>
+      <c r="E64" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="2" t="s">
@@ -2883,6 +3066,9 @@
       <c r="D65" s="2" t="s">
         <v>215</v>
       </c>
+      <c r="E65" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="2" t="s">
@@ -2895,6 +3081,9 @@
       <c r="D66" s="2" t="s">
         <v>218</v>
       </c>
+      <c r="E66" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="2" t="s">
@@ -2909,6 +3098,9 @@
       <c r="D67" s="2" t="s">
         <v>222</v>
       </c>
+      <c r="E67" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="2" t="s">
@@ -2921,6 +3113,9 @@
       <c r="D68" s="2" t="s">
         <v>225</v>
       </c>
+      <c r="E68" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="2" t="s">
@@ -2935,6 +3130,9 @@
       <c r="D69" s="2" t="s">
         <v>229</v>
       </c>
+      <c r="E69" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="2" t="s">
@@ -2947,6 +3145,9 @@
       <c r="D70" s="2" t="s">
         <v>232</v>
       </c>
+      <c r="E70" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="2" t="s">
@@ -2959,6 +3160,9 @@
       <c r="D71" s="2" t="s">
         <v>235</v>
       </c>
+      <c r="E71" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="2" t="s">
@@ -2973,6 +3177,9 @@
       <c r="D72" s="2" t="s">
         <v>239</v>
       </c>
+      <c r="E72" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="2" t="s">
@@ -2985,6 +3192,9 @@
       <c r="D73" s="2" t="s">
         <v>242</v>
       </c>
+      <c r="E73" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="2" t="s">
@@ -2999,6 +3209,9 @@
       <c r="D74" s="2" t="s">
         <v>246</v>
       </c>
+      <c r="E74" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="2" t="s">
@@ -3011,6 +3224,9 @@
       <c r="D75" s="2" t="s">
         <v>249</v>
       </c>
+      <c r="E75" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="2" t="s">
@@ -3023,6 +3239,9 @@
       <c r="D76" s="2" t="s">
         <v>252</v>
       </c>
+      <c r="E76" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="77" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="2" t="s">
@@ -3035,6 +3254,9 @@
       <c r="D77" s="2" t="s">
         <v>255</v>
       </c>
+      <c r="E77" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="4" t="s">
@@ -3047,6 +3269,9 @@
       <c r="D78" s="4" t="s">
         <v>258</v>
       </c>
+      <c r="E78" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="79" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="2" t="s">
@@ -3061,6 +3286,9 @@
       <c r="D79" s="2" t="s">
         <v>262</v>
       </c>
+      <c r="E79" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="2" t="s">
@@ -3073,6 +3301,9 @@
       <c r="D80" s="2" t="s">
         <v>265</v>
       </c>
+      <c r="E80" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="81" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="2" t="s">
@@ -3087,6 +3318,9 @@
       <c r="D81" s="2" t="s">
         <v>268</v>
       </c>
+      <c r="E81" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="2" t="s">
@@ -3099,6 +3333,9 @@
       <c r="D82" s="2" t="s">
         <v>271</v>
       </c>
+      <c r="E82" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="83" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="2" t="s">
@@ -3111,6 +3348,9 @@
       <c r="D83" s="2" t="s">
         <v>274</v>
       </c>
+      <c r="E83" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="84" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="2" t="s">
@@ -3123,6 +3363,9 @@
       <c r="D84" s="2" t="s">
         <v>277</v>
       </c>
+      <c r="E84" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="85" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="2" t="s">
@@ -3135,6 +3378,9 @@
       <c r="D85" s="2" t="s">
         <v>280</v>
       </c>
+      <c r="E85" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="86" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="2" t="s">
@@ -3149,6 +3395,9 @@
       <c r="D86" s="2" t="s">
         <v>284</v>
       </c>
+      <c r="E86" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="87" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="2" t="s">
@@ -3163,6 +3412,9 @@
       <c r="D87" s="2" t="s">
         <v>288</v>
       </c>
+      <c r="E87" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="88" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="2" t="s">
@@ -3177,6 +3429,9 @@
       <c r="D88" s="2" t="s">
         <v>292</v>
       </c>
+      <c r="E88" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="89" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="2" t="s">
@@ -3189,6 +3444,9 @@
       <c r="D89" s="2" t="s">
         <v>295</v>
       </c>
+      <c r="E89" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="90" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="2" t="s">
@@ -3201,6 +3459,9 @@
       <c r="D90" s="2" t="s">
         <v>298</v>
       </c>
+      <c r="E90" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="91" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="2" t="s">
@@ -3213,6 +3474,9 @@
       <c r="D91" s="2" t="s">
         <v>301</v>
       </c>
+      <c r="E91" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="92" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="2" t="s">
@@ -3225,6 +3489,9 @@
       <c r="D92" s="2" t="s">
         <v>304</v>
       </c>
+      <c r="E92" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="93" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="2" t="s">
@@ -3239,6 +3506,9 @@
       <c r="D93" s="2" t="s">
         <v>308</v>
       </c>
+      <c r="E93" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="94" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="2" t="s">
@@ -3251,6 +3521,9 @@
       <c r="D94" s="2" t="s">
         <v>311</v>
       </c>
+      <c r="E94" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="95" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="2" t="s">
@@ -3265,6 +3538,9 @@
       <c r="D95" s="2" t="s">
         <v>315</v>
       </c>
+      <c r="E95" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="96" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="2" t="s">
@@ -3277,6 +3553,9 @@
       <c r="D96" s="2" t="s">
         <v>318</v>
       </c>
+      <c r="E96" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="97" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="2" t="s">
@@ -3289,6 +3568,9 @@
       <c r="D97" s="2" t="s">
         <v>321</v>
       </c>
+      <c r="E97" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="98" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="2" t="s">
@@ -3303,6 +3585,9 @@
       <c r="D98" s="2" t="s">
         <v>325</v>
       </c>
+      <c r="E98" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="2" t="s">
@@ -3314,6 +3599,9 @@
       <c r="D99" s="2" t="s">
         <v>328</v>
       </c>
+      <c r="E99" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="2" t="s">
@@ -3325,6 +3613,9 @@
       <c r="D100" s="2" t="s">
         <v>331</v>
       </c>
+      <c r="E100" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="2" t="s">
@@ -3336,6 +3627,9 @@
       <c r="D101" s="2" t="s">
         <v>334</v>
       </c>
+      <c r="E101" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="2" t="s">
@@ -3347,6 +3641,9 @@
       <c r="D102" s="2" t="s">
         <v>337</v>
       </c>
+      <c r="E102" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="2" t="s">
@@ -3358,6 +3655,9 @@
       <c r="D103" s="2" t="s">
         <v>340</v>
       </c>
+      <c r="E103" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="2" t="s">
@@ -3369,6 +3669,9 @@
       <c r="D104" s="2" t="s">
         <v>343</v>
       </c>
+      <c r="E104" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="2" t="s">
@@ -3380,6 +3683,9 @@
       <c r="D105" s="2" t="s">
         <v>346</v>
       </c>
+      <c r="E105" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="2" t="s">
@@ -3391,6 +3697,9 @@
       <c r="D106" s="2" t="s">
         <v>349</v>
       </c>
+      <c r="E106" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="2" t="s">
@@ -3402,6 +3711,9 @@
       <c r="D107" s="2" t="s">
         <v>352</v>
       </c>
+      <c r="E107" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="2" t="s">
@@ -3413,6 +3725,9 @@
       <c r="D108" s="2" t="s">
         <v>355</v>
       </c>
+      <c r="E108" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="2" t="s">
@@ -3424,6 +3739,9 @@
       <c r="D109" s="2" t="s">
         <v>358</v>
       </c>
+      <c r="E109" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="2" t="s">
@@ -3435,6 +3753,9 @@
       <c r="D110" s="2" t="s">
         <v>361</v>
       </c>
+      <c r="E110" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="2" t="s">
@@ -3446,6 +3767,9 @@
       <c r="D111" s="2" t="s">
         <v>364</v>
       </c>
+      <c r="E111" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="2" t="s">
@@ -3457,6 +3781,9 @@
       <c r="D112" s="2" t="s">
         <v>367</v>
       </c>
+      <c r="E112" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="2" t="s">
@@ -3468,6 +3795,9 @@
       <c r="D113" s="2" t="s">
         <v>370</v>
       </c>
+      <c r="E113" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="2" t="s">
@@ -3479,6 +3809,9 @@
       <c r="D114" s="2" t="s">
         <v>373</v>
       </c>
+      <c r="E114" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="2" t="s">
@@ -3490,6 +3823,9 @@
       <c r="D115" s="2" t="s">
         <v>376</v>
       </c>
+      <c r="E115" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="2" t="s">
@@ -3501,6 +3837,9 @@
       <c r="D116" s="2" t="s">
         <v>379</v>
       </c>
+      <c r="E116" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="2" t="s">
@@ -3512,6 +3851,9 @@
       <c r="D117" s="2" t="s">
         <v>382</v>
       </c>
+      <c r="E117" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="2" t="s">
@@ -3523,6 +3865,9 @@
       <c r="D118" s="2" t="s">
         <v>385</v>
       </c>
+      <c r="E118" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="2" t="s">
@@ -3534,6 +3879,9 @@
       <c r="D119" s="2" t="s">
         <v>388</v>
       </c>
+      <c r="E119" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="2" t="s">
@@ -3545,6 +3893,9 @@
       <c r="D120" s="2" t="s">
         <v>391</v>
       </c>
+      <c r="E120" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="2" t="s">
@@ -3556,6 +3907,9 @@
       <c r="D121" s="2" t="s">
         <v>394</v>
       </c>
+      <c r="E121" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="2" t="s">
@@ -3567,6 +3921,9 @@
       <c r="D122" s="2" t="s">
         <v>397</v>
       </c>
+      <c r="E122" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="2" t="s">
@@ -3578,6 +3935,9 @@
       <c r="D123" s="2" t="s">
         <v>400</v>
       </c>
+      <c r="E123" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="2" t="s">
@@ -3589,6 +3949,9 @@
       <c r="D124" s="2" t="s">
         <v>403</v>
       </c>
+      <c r="E124" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="2" t="s">
@@ -3600,6 +3963,9 @@
       <c r="D125" s="2" t="s">
         <v>406</v>
       </c>
+      <c r="E125" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="2" t="s">
@@ -3611,6 +3977,9 @@
       <c r="D126" s="2" t="s">
         <v>409</v>
       </c>
+      <c r="E126" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="2" t="s">
@@ -3622,6 +3991,9 @@
       <c r="D127" s="2" t="s">
         <v>412</v>
       </c>
+      <c r="E127" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="2" t="s">
@@ -3633,6 +4005,9 @@
       <c r="D128" s="2" t="s">
         <v>415</v>
       </c>
+      <c r="E128" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="2" t="s">
@@ -3644,6 +4019,9 @@
       <c r="D129" s="2" t="s">
         <v>418</v>
       </c>
+      <c r="E129" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="2" t="s">
@@ -3655,6 +4033,9 @@
       <c r="D130" s="2" t="s">
         <v>421</v>
       </c>
+      <c r="E130" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="2" t="s">
@@ -3666,6 +4047,9 @@
       <c r="D131" s="2" t="s">
         <v>424</v>
       </c>
+      <c r="E131" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="2" t="s">
@@ -3677,6 +4061,9 @@
       <c r="D132" s="2" t="s">
         <v>427</v>
       </c>
+      <c r="E132" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="2" t="s">
@@ -3688,6 +4075,9 @@
       <c r="D133" s="2" t="s">
         <v>430</v>
       </c>
+      <c r="E133" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="2" t="s">
@@ -3699,6 +4089,9 @@
       <c r="D134" s="2" t="s">
         <v>433</v>
       </c>
+      <c r="E134" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="2" t="s">
@@ -3710,6 +4103,9 @@
       <c r="D135" s="2" t="s">
         <v>436</v>
       </c>
+      <c r="E135" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="2" t="s">
@@ -3721,6 +4117,9 @@
       <c r="D136" s="2" t="s">
         <v>439</v>
       </c>
+      <c r="E136" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="2" t="s">
@@ -3732,6 +4131,9 @@
       <c r="D137" s="2" t="s">
         <v>442</v>
       </c>
+      <c r="E137" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="2" t="s">
@@ -3743,6 +4145,9 @@
       <c r="D138" s="2" t="s">
         <v>445</v>
       </c>
+      <c r="E138" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="2" t="s">
@@ -3754,6 +4159,9 @@
       <c r="D139" s="2" t="s">
         <v>448</v>
       </c>
+      <c r="E139" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="2" t="s">
@@ -3765,6 +4173,9 @@
       <c r="D140" s="2" t="s">
         <v>451</v>
       </c>
+      <c r="E140" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="2" t="s">
@@ -3776,6 +4187,9 @@
       <c r="D141" s="2" t="s">
         <v>454</v>
       </c>
+      <c r="E141" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="2" t="s">
@@ -3787,6 +4201,9 @@
       <c r="D142" s="2" t="s">
         <v>457</v>
       </c>
+      <c r="E142" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="2" t="s">
@@ -3798,6 +4215,9 @@
       <c r="D143" s="2" t="s">
         <v>460</v>
       </c>
+      <c r="E143" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="2" t="s">
@@ -3809,6 +4229,9 @@
       <c r="D144" s="2" t="s">
         <v>463</v>
       </c>
+      <c r="E144" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="2" t="s">
@@ -3820,6 +4243,9 @@
       <c r="D145" s="2" t="s">
         <v>466</v>
       </c>
+      <c r="E145" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="2" t="s">
@@ -3831,6 +4257,9 @@
       <c r="D146" s="2" t="s">
         <v>469</v>
       </c>
+      <c r="E146" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="2" t="s">
@@ -3842,6 +4271,9 @@
       <c r="D147" s="2" t="s">
         <v>472</v>
       </c>
+      <c r="E147" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="2" t="s">
@@ -3853,6 +4285,9 @@
       <c r="D148" s="2" t="s">
         <v>475</v>
       </c>
+      <c r="E148" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="2" t="s">
@@ -3864,6 +4299,9 @@
       <c r="D149" s="2" t="s">
         <v>478</v>
       </c>
+      <c r="E149" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="2" t="s">
@@ -3875,6 +4313,9 @@
       <c r="D150" s="2" t="s">
         <v>481</v>
       </c>
+      <c r="E150" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="2" t="s">
@@ -3886,6 +4327,9 @@
       <c r="D151" s="2" t="s">
         <v>484</v>
       </c>
+      <c r="E151" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="2" t="s">
@@ -3897,6 +4341,9 @@
       <c r="D152" s="2" t="s">
         <v>487</v>
       </c>
+      <c r="E152" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="2" t="s">
@@ -3908,6 +4355,9 @@
       <c r="D153" s="2" t="s">
         <v>490</v>
       </c>
+      <c r="E153" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="2" t="s">
@@ -3919,6 +4369,9 @@
       <c r="D154" s="2" t="s">
         <v>493</v>
       </c>
+      <c r="E154" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="2" t="s">
@@ -3930,6 +4383,9 @@
       <c r="D155" s="2" t="s">
         <v>496</v>
       </c>
+      <c r="E155" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="156" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="2" t="s">
@@ -3938,6 +4394,9 @@
       <c r="C156" s="7"/>
       <c r="D156" s="2" t="s">
         <v>498</v>
+      </c>
+      <c r="E156" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3949,331 +4408,277 @@
       <c r="D157" s="4" t="s">
         <v>500</v>
       </c>
-      <c r="E157" s="5" t="s">
+      <c r="E157" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F157" s="5" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="158" s="10" customFormat="true" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="9" t="s">
+    <row r="158" s="5" customFormat="true" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="4" t="s">
         <v>502</v>
       </c>
-      <c r="C158" s="11" t="s">
+      <c r="C158" s="8" t="s">
         <v>503</v>
       </c>
-      <c r="D158" s="9" t="s">
+      <c r="D158" s="4" t="s">
         <v>504</v>
       </c>
-      <c r="XEY158" s="5"/>
-      <c r="XEZ158" s="5"/>
-      <c r="XFA158" s="5"/>
-      <c r="XFB158" s="5"/>
-      <c r="XFC158" s="5"/>
-      <c r="XFD158" s="5"/>
-    </row>
-    <row r="159" s="10" customFormat="true" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="9" t="s">
+      <c r="E158" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" s="5" customFormat="true" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="4" t="s">
         <v>505</v>
       </c>
-      <c r="C159" s="11" t="s">
+      <c r="C159" s="8" t="s">
         <v>506</v>
       </c>
-      <c r="D159" s="9" t="s">
+      <c r="D159" s="4" t="s">
         <v>507</v>
       </c>
-      <c r="XEY159" s="5"/>
-      <c r="XEZ159" s="5"/>
-      <c r="XFA159" s="5"/>
-      <c r="XFB159" s="5"/>
-      <c r="XFC159" s="5"/>
-      <c r="XFD159" s="5"/>
-    </row>
-    <row r="160" s="10" customFormat="true" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="9" t="s">
+      <c r="E159" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" s="5" customFormat="true" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="4" t="s">
         <v>508</v>
       </c>
-      <c r="C160" s="11" t="s">
+      <c r="C160" s="8" t="s">
         <v>509</v>
       </c>
-      <c r="D160" s="9" t="s">
+      <c r="D160" s="4" t="s">
         <v>510</v>
       </c>
-      <c r="XEY160" s="5"/>
-      <c r="XEZ160" s="5"/>
-      <c r="XFA160" s="5"/>
-      <c r="XFB160" s="5"/>
-      <c r="XFC160" s="5"/>
-      <c r="XFD160" s="5"/>
-    </row>
-    <row r="161" s="10" customFormat="true" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="9" t="s">
+      <c r="E160" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" s="5" customFormat="true" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="4" t="s">
         <v>511</v>
       </c>
-      <c r="C161" s="11" t="s">
+      <c r="C161" s="8" t="s">
         <v>512</v>
       </c>
-      <c r="D161" s="9" t="s">
+      <c r="D161" s="4" t="s">
         <v>513</v>
       </c>
-      <c r="XEY161" s="5"/>
-      <c r="XEZ161" s="5"/>
-      <c r="XFA161" s="5"/>
-      <c r="XFB161" s="5"/>
-      <c r="XFC161" s="5"/>
-      <c r="XFD161" s="5"/>
-    </row>
-    <row r="162" s="10" customFormat="true" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="9" t="s">
+      <c r="E161" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" s="5" customFormat="true" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="4" t="s">
         <v>514</v>
       </c>
-      <c r="B162" s="12" t="s">
+      <c r="B162" s="9" t="s">
         <v>515</v>
       </c>
-      <c r="C162" s="11" t="s">
+      <c r="C162" s="8" t="s">
         <v>516</v>
       </c>
-      <c r="D162" s="9" t="s">
+      <c r="D162" s="4" t="s">
         <v>517</v>
       </c>
-      <c r="XEY162" s="5"/>
-      <c r="XEZ162" s="5"/>
-      <c r="XFA162" s="5"/>
-      <c r="XFB162" s="5"/>
-      <c r="XFC162" s="5"/>
-      <c r="XFD162" s="5"/>
-    </row>
-    <row r="163" s="10" customFormat="true" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="9" t="s">
+      <c r="E162" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" s="5" customFormat="true" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="4" t="s">
         <v>518</v>
       </c>
-      <c r="B163" s="13"/>
-      <c r="C163" s="11" t="s">
+      <c r="B163" s="10"/>
+      <c r="C163" s="8" t="s">
         <v>519</v>
       </c>
-      <c r="D163" s="9" t="s">
+      <c r="D163" s="4" t="s">
         <v>520</v>
       </c>
-      <c r="XEY163" s="5"/>
-      <c r="XEZ163" s="5"/>
-      <c r="XFA163" s="5"/>
-      <c r="XFB163" s="5"/>
-      <c r="XFC163" s="5"/>
-      <c r="XFD163" s="5"/>
-    </row>
-    <row r="164" s="10" customFormat="true" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="9" t="s">
+      <c r="E163" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" s="5" customFormat="true" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="4" t="s">
         <v>521</v>
       </c>
-      <c r="C164" s="11" t="s">
+      <c r="C164" s="8" t="s">
         <v>522</v>
       </c>
-      <c r="D164" s="9" t="s">
+      <c r="D164" s="4" t="s">
         <v>523</v>
       </c>
-      <c r="XEY164" s="5"/>
-      <c r="XEZ164" s="5"/>
-      <c r="XFA164" s="5"/>
-      <c r="XFB164" s="5"/>
-      <c r="XFC164" s="5"/>
-      <c r="XFD164" s="5"/>
-    </row>
-    <row r="165" s="10" customFormat="true" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="9" t="s">
+      <c r="E164" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" s="5" customFormat="true" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="4" t="s">
         <v>524</v>
       </c>
-      <c r="C165" s="11" t="s">
+      <c r="C165" s="8" t="s">
         <v>525</v>
       </c>
-      <c r="D165" s="9" t="s">
+      <c r="D165" s="4" t="s">
         <v>526</v>
       </c>
-      <c r="XEY165" s="5"/>
-      <c r="XEZ165" s="5"/>
-      <c r="XFA165" s="5"/>
-      <c r="XFB165" s="5"/>
-      <c r="XFC165" s="5"/>
-      <c r="XFD165" s="5"/>
-    </row>
-    <row r="166" s="10" customFormat="true" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="9" t="s">
+      <c r="E165" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" s="5" customFormat="true" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="4" t="s">
         <v>527</v>
       </c>
-      <c r="C166" s="11" t="s">
+      <c r="C166" s="8" t="s">
         <v>528</v>
       </c>
-      <c r="D166" s="9" t="s">
+      <c r="D166" s="4" t="s">
         <v>529</v>
       </c>
-      <c r="XEY166" s="5"/>
-      <c r="XEZ166" s="5"/>
-      <c r="XFA166" s="5"/>
-      <c r="XFB166" s="5"/>
-      <c r="XFC166" s="5"/>
-      <c r="XFD166" s="5"/>
-    </row>
-    <row r="167" s="10" customFormat="true" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="9" t="s">
+      <c r="E166" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" s="5" customFormat="true" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="4" t="s">
         <v>530</v>
       </c>
-      <c r="C167" s="11" t="s">
+      <c r="C167" s="8" t="s">
         <v>531</v>
       </c>
-      <c r="D167" s="9" t="s">
+      <c r="D167" s="4" t="s">
         <v>532</v>
       </c>
-      <c r="XEY167" s="5"/>
-      <c r="XEZ167" s="5"/>
-      <c r="XFA167" s="5"/>
-      <c r="XFB167" s="5"/>
-      <c r="XFC167" s="5"/>
-      <c r="XFD167" s="5"/>
-    </row>
-    <row r="168" s="10" customFormat="true" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="9" t="s">
+      <c r="E167" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" s="5" customFormat="true" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="4" t="s">
         <v>533</v>
       </c>
-      <c r="C168" s="11" t="s">
+      <c r="C168" s="8" t="s">
         <v>534</v>
       </c>
-      <c r="D168" s="9" t="s">
+      <c r="D168" s="4" t="s">
         <v>535</v>
       </c>
-      <c r="XEY168" s="5"/>
-      <c r="XEZ168" s="5"/>
-      <c r="XFA168" s="5"/>
-      <c r="XFB168" s="5"/>
-      <c r="XFC168" s="5"/>
-      <c r="XFD168" s="5"/>
-    </row>
-    <row r="169" s="10" customFormat="true" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="9" t="s">
+      <c r="E168" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" s="5" customFormat="true" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="4" t="s">
         <v>536</v>
       </c>
-      <c r="C169" s="11" t="s">
+      <c r="C169" s="8" t="s">
         <v>537</v>
       </c>
-      <c r="D169" s="9" t="s">
+      <c r="D169" s="4" t="s">
         <v>538</v>
       </c>
-      <c r="XEY169" s="5"/>
-      <c r="XEZ169" s="5"/>
-      <c r="XFA169" s="5"/>
-      <c r="XFB169" s="5"/>
-      <c r="XFC169" s="5"/>
-      <c r="XFD169" s="5"/>
-    </row>
-    <row r="170" s="10" customFormat="true" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="9" t="s">
+      <c r="E169" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" s="5" customFormat="true" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="4" t="s">
         <v>539</v>
       </c>
-      <c r="C170" s="11" t="s">
+      <c r="C170" s="8" t="s">
         <v>540</v>
       </c>
-      <c r="D170" s="9" t="s">
+      <c r="D170" s="4" t="s">
         <v>541</v>
       </c>
-      <c r="XEY170" s="5"/>
-      <c r="XEZ170" s="5"/>
-      <c r="XFA170" s="5"/>
-      <c r="XFB170" s="5"/>
-      <c r="XFC170" s="5"/>
-      <c r="XFD170" s="5"/>
-    </row>
-    <row r="171" s="10" customFormat="true" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="9" t="s">
+      <c r="E170" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" s="5" customFormat="true" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="4" t="s">
         <v>542</v>
       </c>
-      <c r="C171" s="11" t="s">
+      <c r="C171" s="8" t="s">
         <v>543</v>
       </c>
-      <c r="D171" s="9" t="s">
+      <c r="D171" s="4" t="s">
         <v>544</v>
       </c>
-      <c r="XEY171" s="5"/>
-      <c r="XEZ171" s="5"/>
-      <c r="XFA171" s="5"/>
-      <c r="XFB171" s="5"/>
-      <c r="XFC171" s="5"/>
-      <c r="XFD171" s="5"/>
-    </row>
-    <row r="172" s="10" customFormat="true" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="9" t="s">
+      <c r="E171" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" s="5" customFormat="true" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="4" t="s">
         <v>545</v>
       </c>
-      <c r="B172" s="13"/>
-      <c r="C172" s="11" t="s">
+      <c r="B172" s="10"/>
+      <c r="C172" s="8" t="s">
         <v>546</v>
       </c>
-      <c r="D172" s="9" t="s">
+      <c r="D172" s="4" t="s">
         <v>547</v>
       </c>
-      <c r="XEY172" s="5"/>
-      <c r="XEZ172" s="5"/>
-      <c r="XFA172" s="5"/>
-      <c r="XFB172" s="5"/>
-      <c r="XFC172" s="5"/>
-      <c r="XFD172" s="5"/>
-    </row>
-    <row r="173" s="10" customFormat="true" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="9" t="s">
+      <c r="E172" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" s="5" customFormat="true" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="4" t="s">
         <v>548</v>
       </c>
-      <c r="C173" s="11" t="s">
+      <c r="C173" s="8" t="s">
         <v>549</v>
       </c>
-      <c r="D173" s="9" t="s">
+      <c r="D173" s="4" t="s">
         <v>550</v>
       </c>
-      <c r="XEY173" s="5"/>
-      <c r="XEZ173" s="5"/>
-      <c r="XFA173" s="5"/>
-      <c r="XFB173" s="5"/>
-      <c r="XFC173" s="5"/>
-      <c r="XFD173" s="5"/>
-    </row>
-    <row r="174" s="10" customFormat="true" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="9" t="s">
+      <c r="E173" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" s="5" customFormat="true" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="4" t="s">
         <v>551</v>
       </c>
-      <c r="C174" s="11" t="s">
+      <c r="C174" s="8" t="s">
         <v>552</v>
       </c>
-      <c r="D174" s="9" t="s">
+      <c r="D174" s="4" t="s">
         <v>553</v>
       </c>
-      <c r="XEY174" s="5"/>
-      <c r="XEZ174" s="5"/>
-      <c r="XFA174" s="5"/>
-      <c r="XFB174" s="5"/>
-      <c r="XFC174" s="5"/>
-      <c r="XFD174" s="5"/>
-    </row>
-    <row r="175" s="10" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="9" t="s">
+      <c r="E174" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" s="5" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="4" t="s">
         <v>554</v>
       </c>
-      <c r="D175" s="9" t="s">
+      <c r="D175" s="4" t="s">
         <v>555</v>
       </c>
-      <c r="XEY175" s="5"/>
-      <c r="XEZ175" s="5"/>
-      <c r="XFA175" s="5"/>
-      <c r="XFB175" s="5"/>
-      <c r="XFC175" s="5"/>
-      <c r="XFD175" s="5"/>
-    </row>
-    <row r="176" s="10" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="9" t="s">
+      <c r="E175" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" s="5" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="4" t="s">
         <v>556</v>
       </c>
-      <c r="D176" s="9" t="s">
+      <c r="D176" s="4" t="s">
         <v>557</v>
       </c>
-      <c r="XEY176" s="5"/>
-      <c r="XEZ176" s="5"/>
-      <c r="XFA176" s="5"/>
-      <c r="XFB176" s="5"/>
-      <c r="XFC176" s="5"/>
-      <c r="XFD176" s="5"/>
+      <c r="E176" s="5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
